--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B4359E-02F3-4F14-AF97-2574BA0BC8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6849D2CC-5370-451C-911A-9CE50DFD9C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
+    <workbookView xWindow="9274" yWindow="4980" windowWidth="23392" windowHeight="11957" activeTab="2" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Player" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill to Value" sheetId="2" r:id="rId1"/>
+    <sheet name="Spike Power" sheetId="3" r:id="rId2"/>
+    <sheet name="Player" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>distance: 8.295987, power: 27.8139, speed pen: -0.01683367, set bonus: 0, spikeTime: 0.3033746, speed: 27.35m/s / 61.17mph</t>
   </si>
@@ -84,6 +86,42 @@
   </si>
   <si>
     <t>distance: 6.674328, power: 28.60008, speed pen: -0.01299713, set bonus: 0.05, spikeTime: 0.2250403, speed: 29.66m/s / 66.34mph</t>
+  </si>
+  <si>
+    <t>Player Skill</t>
+  </si>
+  <si>
+    <t>Skill Range</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Value Range</t>
+  </si>
+  <si>
+    <t>Skill to Value</t>
+  </si>
+  <si>
+    <t>Skill Type</t>
+  </si>
+  <si>
+    <t>Spike Power</t>
+  </si>
+  <si>
+    <t>maxVariance</t>
+  </si>
+  <si>
+    <t>athleteSkill</t>
+  </si>
+  <si>
+    <t>adjustedPower</t>
+  </si>
+  <si>
+    <t>athletePower</t>
   </si>
 </sst>
 </file>
@@ -119,8 +157,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,6 +498,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEFE102-FC79-44BA-9EBD-B5FDB4B0C5DA}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <f>(B3-C3)*(F3-E3)/(D3-C3)+E3</f>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524659FA-A28B-4F0B-89E8-E890CA7CC901}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f>2+(0.1-2)*(A2/10)</f>
+        <v>0.67000000000000015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19289AF4-DE8A-4F06-880E-3024ABD8F25C}">
   <dimension ref="A1:A16"/>
   <sheetViews>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6849D2CC-5370-451C-911A-9CE50DFD9C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDA781-0403-4D51-B869-A507DA25EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9274" yWindow="4980" windowWidth="23392" windowHeight="11957" activeTab="2" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill to Value" sheetId="2" r:id="rId1"/>
@@ -38,55 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>distance: 8.295987, power: 27.8139, speed pen: -0.01683367, set bonus: 0, spikeTime: 0.3033746, speed: 27.35m/s / 61.17mph</t>
-  </si>
-  <si>
-    <t>distance: 8.972849, power: 27.70882, speed pen: -0.01942518, set bonus: 0, spikeTime: 0.3302415, speed: 27.17m/s / 60.78mph</t>
-  </si>
-  <si>
-    <t>distance: 9.537649, power: 27.42447, speed pen: -0.01458643, set bonus: 0, spikeTime: 0.3529268, speed: 27.02m/s / 60.45mph</t>
-  </si>
-  <si>
-    <t>distance: 6.611522, power: 28.16635, speed pen: -0.02223197, set bonus: 0, spikeTime: 0.2400684, speed: 27.54m/s / 61.61mph</t>
-  </si>
-  <si>
-    <t>distance: 6.546419, power: 27.92983, speed pen: -0.01793906, set bonus: 0, spikeTime: 0.2386696, speed: 27.43m/s / 61.36mph</t>
-  </si>
-  <si>
-    <t>distance: 6.516151, power: 28.08686, speed pen: -0.01673058, set bonus: 0, spikeTime: 0.2359475, speed: 27.62m/s / 61.78mph</t>
-  </si>
-  <si>
-    <t>distance: 6.670997, power: 27.49204, speed pen: -0.01588566, set bonus: 0.05, spikeTime: 0.2346471, speed: 28.43m/s / 63.60mph</t>
-  </si>
-  <si>
-    <t>distance: 10.03519, power: 27.48772, speed pen: -0.01465441, set bonus: 0.05, spikeTime: 0.3526155, speed: 28.46m/s / 63.66mph</t>
-  </si>
-  <si>
-    <t>distance: 6.640432, power: 28.51268, speed pen: -0.01860127, set bonus: 0.05, spikeTime: 0.225804, speed: 29.41m/s / 65.78mph</t>
-  </si>
-  <si>
-    <t>distance: 6.67511, power: 27.84725, speed pen: -0.01330408, set bonus: 0.05, spikeTime: 0.2312196, speed: 28.87m/s / 64.58mph</t>
-  </si>
-  <si>
-    <t>distance: 6.547095, power: 27.66244, speed pen: -0.02567003, set bonus: 0.05, spikeTime: 0.2310566, speed: 28.34m/s / 63.38mph</t>
-  </si>
-  <si>
-    <t>distance: 6.574227, power: 28.34016, speed pen: -0.02108194, set bonus: 0.05, spikeTime: 0.2254559, speed: 29.16m/s / 65.23mph</t>
-  </si>
-  <si>
-    <t>distance: 6.670865, power: 27.39529, speed pen: -0.02646348, set bonus: 0.05, spikeTime: 0.2379046, speed: 28.04m/s / 62.72mph</t>
-  </si>
-  <si>
-    <t>distance: 6.613571, power: 28.5898, speed pen: -0.02730619, set bonus: 0.05, spikeTime: 0.226193, speed: 29.24m/s / 65.41mph</t>
-  </si>
-  <si>
-    <t>distance: 6.654432, power: 27.83541, speed pen: -0.01952879, set bonus: 0.05, spikeTime: 0.2319944, speed: 28.68m/s / 64.16mph</t>
-  </si>
-  <si>
-    <t>distance: 6.674328, power: 28.60008, speed pen: -0.01299713, set bonus: 0.05, spikeTime: 0.2250403, speed: 29.66m/s / 66.34mph</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Player Skill</t>
   </si>
@@ -122,12 +74,63 @@
   </si>
   <si>
     <t>athletePower</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>randVar</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>speed pen</t>
+  </si>
+  <si>
+    <t>set bonus</t>
+  </si>
+  <si>
+    <t>spikeTime</t>
+  </si>
+  <si>
+    <t>speed (m/s)</t>
+  </si>
+  <si>
+    <t>speed (mph)</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>maxVar</t>
+  </si>
+  <si>
+    <t>adjPow</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>adjSet</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>skill2val</t>
+  </si>
+  <si>
+    <t>check4dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,13 +160,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -180,6 +191,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,7 +530,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -518,40 +546,40 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -594,16 +622,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -625,90 +653,489 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19289AF4-DE8A-4F06-880E-3024ABD8F25C}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>9.3537289999999995</v>
+      </c>
+      <c r="B2">
+        <v>-0.38289210000000001</v>
+      </c>
+      <c r="C2">
+        <v>27.61711</v>
+      </c>
+      <c r="D2">
+        <v>-1.670311E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.34444659999999999</v>
+      </c>
+      <c r="G2">
+        <v>27.16</v>
+      </c>
+      <c r="H2">
+        <v>60.75</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <f>2+(0.1-2)*(K2/10)</f>
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="N2">
+        <f>MIN(MAX(L2+B2,1),10)</f>
+        <v>6.6171078999999997</v>
+      </c>
+      <c r="O2">
+        <f>IF(J2,0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>(N2-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
+        <v>27.617107900000001</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>A2/(P2*(1-(ABS(D2)-O2)))</f>
+        <v>0.34444661481034827</v>
+      </c>
+      <c r="R2" t="b">
+        <f>ROUND(F2,4)=ROUND(Q2,4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>9.9894079999999992</v>
+      </c>
+      <c r="B3">
+        <v>-3.7250100000000001E-2</v>
+      </c>
+      <c r="C3">
+        <v>27.96275</v>
+      </c>
+      <c r="D3">
+        <v>-1.9782629999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.36444959999999998</v>
+      </c>
+      <c r="G3">
+        <v>27.41</v>
+      </c>
+      <c r="H3">
+        <v>61.31</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" si="0">2+(0.1-2)*(K3/10)</f>
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" si="1">MIN(MAX(L3+B3,1),10)</f>
+        <v>6.9627499000000004</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O8" si="2">IF(J3,0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>(N3-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
+        <v>27.962749899999999</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q8" si="3">A3/(P3*(1-(ABS(D3)-O3)))</f>
+        <v>0.36444960087067324</v>
+      </c>
+      <c r="R3" t="b">
+        <f t="shared" ref="R3:R8" si="4">ROUND(F3,4)=ROUND(Q3,4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>6.6992789999999998</v>
+      </c>
+      <c r="B4">
+        <v>-6.1465319999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>27.93853</v>
+      </c>
+      <c r="D4">
+        <v>-1.526279E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.24350289999999999</v>
+      </c>
+      <c r="G4">
+        <v>27.51</v>
+      </c>
+      <c r="H4">
+        <v>61.54</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>6.9385346800000001</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>(N4-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
+        <v>27.93853468</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2435028740950228</v>
+      </c>
+      <c r="R4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>10.0289</v>
+      </c>
+      <c r="B5">
+        <v>0.31448999999999999</v>
+      </c>
+      <c r="C5">
+        <v>28.314489999999999</v>
+      </c>
+      <c r="D5">
+        <v>-1.317898E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.3589271</v>
+      </c>
+      <c r="G5">
+        <v>27.94</v>
+      </c>
+      <c r="H5">
+        <v>62.5</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>7.3144900000000002</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>(N5-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
+        <v>28.314489999999999</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.35892703029020528</v>
+      </c>
+      <c r="R5" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6.4994930000000002</v>
+      </c>
+      <c r="B6">
+        <v>0.17522389999999999</v>
+      </c>
+      <c r="C6">
+        <v>28.175219999999999</v>
+      </c>
+      <c r="D6">
+        <v>-2.258897E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.23601240000000001</v>
+      </c>
+      <c r="G6">
+        <v>27.54</v>
+      </c>
+      <c r="H6">
+        <v>61.6</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>7.1752238999999998</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>(N6-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
+        <v>28.175223899999999</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.23601242580456191</v>
+      </c>
+      <c r="R6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6.4744270000000004</v>
+      </c>
+      <c r="B7">
+        <v>-0.19184329999999999</v>
+      </c>
+      <c r="C7">
+        <v>27.808160000000001</v>
+      </c>
+      <c r="D7">
+        <v>-2.693108E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.2392685</v>
+      </c>
+      <c r="G7">
+        <v>27.06</v>
+      </c>
+      <c r="H7">
+        <v>60.53</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>6.8081566999999996</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>(N7-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
+        <v>27.808156699999998</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.23926850450243278</v>
+      </c>
+      <c r="R7" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6.6844460000000003</v>
+      </c>
+      <c r="B8">
+        <v>-0.137458</v>
+      </c>
+      <c r="C8">
+        <v>27.862539999999999</v>
+      </c>
+      <c r="D8">
+        <v>-1.5332200000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.24364359999999999</v>
+      </c>
+      <c r="G8">
+        <v>27.44</v>
+      </c>
+      <c r="H8">
+        <v>61.37</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>6.8625420000000004</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>(N8-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
+        <v>27.862542000000001</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.24364356581847257</v>
+      </c>
+      <c r="R8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBDA781-0403-4D51-B869-A507DA25EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CCD915-B5A5-4BC5-9F94-B2BC46DA1AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="2" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill to Value" sheetId="2" r:id="rId1"/>
     <sheet name="Spike Power" sheetId="3" r:id="rId2"/>
     <sheet name="Player" sheetId="1" r:id="rId3"/>
+    <sheet name="SpikeTime" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Player Skill</t>
   </si>
@@ -122,6 +123,105 @@
   </si>
   <si>
     <t>check4dec</t>
+  </si>
+  <si>
+    <t>spikeTime = distance.magnitude / (ballInfo.SkillValues.SkillToValue(adjustedPower, skillPowerRange) * (1 - (Mathf.Abs(spikeSpeedPenalty) - setPassAdjustment)));</t>
+  </si>
+  <si>
+    <t>setPassAdjustment = ballInfo.LastPassType == PassType.Set ? setPassBenefit : 0;</t>
+  </si>
+  <si>
+    <t>setPassBenefit = 0.05f;</t>
+  </si>
+  <si>
+    <t>adjustedPower = Mathf.Clamp(athletePower + randomVariance, 1f, 10f);</t>
+  </si>
+  <si>
+    <t>randomVariance = UnityEngine.Random.Range(-maxVariance, maxVariance);</t>
+  </si>
+  <si>
+    <t>maxVariance = Mathf.Lerp(2f, 0.1f, athleteSkill / 10f);</t>
+  </si>
+  <si>
+    <t>spikeSpeedPenalty = timingVar * window;</t>
+  </si>
+  <si>
+    <t>penalty = timingVar * window * spikeWindowPenalty;</t>
+  </si>
+  <si>
+    <t>window = ballInfo.SkillValues.SkillToValue(skills.SpikeSkill, ballInfo.SkillValues.SpikeTimingWindow);</t>
+  </si>
+  <si>
+    <t>timingVar = stateInfo.normalizedTime - 1;</t>
+  </si>
+  <si>
+    <t>timingVar</t>
+  </si>
+  <si>
+    <t>SkillToValue</t>
+  </si>
+  <si>
+    <t>s_s</t>
+  </si>
+  <si>
+    <t>w_s</t>
+  </si>
+  <si>
+    <t>SpikeTimingWindow</t>
+  </si>
+  <si>
+    <t>SpikeSkill</t>
+  </si>
+  <si>
+    <t>spikeWindowPenalty</t>
+  </si>
+  <si>
+    <t>var_t</t>
+  </si>
+  <si>
+    <t>var_m</t>
+  </si>
+  <si>
+    <t>var_r</t>
+  </si>
+  <si>
+    <t>randomVariance</t>
+  </si>
+  <si>
+    <t>p_adj</t>
+  </si>
+  <si>
+    <t>pen_sw</t>
+  </si>
+  <si>
+    <t>s_adj</t>
+  </si>
+  <si>
+    <t>setPassAdjustment</t>
+  </si>
+  <si>
+    <t>t_s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>distance.magnitude</t>
+  </si>
+  <si>
+    <t>rng_sp</t>
+  </si>
+  <si>
+    <t>skillPowerRange</t>
+  </si>
+  <si>
+    <t>pen_ss</t>
+  </si>
+  <si>
+    <t>spikeSpeedPenalty</t>
+  </si>
+  <si>
+    <t>SToV</t>
   </si>
 </sst>
 </file>
@@ -129,7 +229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -165,16 +265,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -191,6 +291,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>380512</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1FA1C0F-86DE-6DEF-ED13-2351F7882159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="2405743"/>
+          <a:ext cx="6258798" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>531118</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>73567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98311148-5E8B-5FCB-DDA8-5F84D7177B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="3886200"/>
+          <a:ext cx="3143689" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,14 +738,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -655,7 +848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19289AF4-DE8A-4F06-880E-3024ABD8F25C}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
@@ -673,7 +866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -775,7 +968,7 @@
         <f>(N2-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
         <v>27.617107900000001</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <f>A2/(P2*(1-(ABS(D2)-O2)))</f>
         <v>0.34444661481034827</v>
       </c>
@@ -834,7 +1027,7 @@
         <f>(N3-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
         <v>27.962749899999999</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q8" si="3">A3/(P3*(1-(ABS(D3)-O3)))</f>
         <v>0.36444960087067324</v>
       </c>
@@ -893,7 +1086,7 @@
         <f>(N4-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
         <v>27.93853468</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <f t="shared" si="3"/>
         <v>0.2435028740950228</v>
       </c>
@@ -952,7 +1145,7 @@
         <f>(N5-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
         <v>28.314489999999999</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <f t="shared" si="3"/>
         <v>0.35892703029020528</v>
       </c>
@@ -1011,7 +1204,7 @@
         <f>(N6-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
         <v>28.175223899999999</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <f t="shared" si="3"/>
         <v>0.23601242580456191</v>
       </c>
@@ -1070,7 +1263,7 @@
         <f>(N7-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
         <v>27.808156699999998</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <f t="shared" si="3"/>
         <v>0.23926850450243278</v>
       </c>
@@ -1129,7 +1322,7 @@
         <f>(N8-'Skill to Value'!C$3)*('Skill to Value'!F$3-'Skill to Value'!E$3)/('Skill to Value'!D$3-'Skill to Value'!C$3)+'Skill to Value'!E$3</f>
         <v>27.862542000000001</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <f t="shared" si="3"/>
         <v>0.24364356581847257</v>
       </c>
@@ -1141,4 +1334,174 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CCD915-B5A5-4BC5-9F94-B2BC46DA1AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89169FD0-A655-44B2-913B-99C77866917F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -291,6 +291,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,6 +387,64 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>239487</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>10887</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>527957</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>163286</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="ScrollBar1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -720,6 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEFE102-FC79-44BA-9EBD-B5FDB4B0C5DA}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -805,6 +868,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524659FA-A28B-4F0B-89E8-E890CA7CC901}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -846,6 +910,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19289AF4-DE8A-4F06-880E-3024ABD8F25C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1337,74 +1402,82 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <f>D12/100</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1412,7 +1485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1420,7 +1493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1428,7 +1501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1502,6 +1575,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="ScrollBar1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="D12" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>239486</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>10886</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>527957</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>163286</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="ScrollBar1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89169FD0-A655-44B2-913B-99C77866917F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5872F-1B39-4604-899D-E3C078F15A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Player Skill</t>
   </si>
@@ -222,14 +222,18 @@
   </si>
   <si>
     <t>SToV</t>
+  </si>
+  <si>
+    <t>SToV(p_adj,rng_sp)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -260,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,6 +280,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,6 +300,14 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
@@ -391,26 +405,142 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>239487</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>10887</xdr:rowOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>527957</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>163286</xdr:rowOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>397330</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>179614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="ScrollBar1" hidden="1">
+            <xdr:cNvPr id="1026" name="timingVar" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3D9CC4-C673-2085-011A-09056B228883}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>27214</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>397330</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>179614</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="SpikeSkill" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EDF033-2FB9-2838-646F-6DC3272F9B1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>27214</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>397330</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>179614</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="SpikeTimingWindow" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDE0BBB-491B-147B-1AFA-49AEB269168D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1404,65 +1534,71 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="20" max="20" width="17.07421875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="T10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1476,8 +1612,11 @@
         <f>D12/100</f>
         <v>0.13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1485,23 +1624,40 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6">
+        <f>D14/10</f>
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6">
+        <f>D15/100</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1509,7 +1665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1517,7 +1673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1525,7 +1681,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1533,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1541,7 +1697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1549,7 +1705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1557,7 +1713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1565,12 +1721,31 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
+      </c>
+      <c r="E24" s="5">
+        <f>(E14-'Skill to Value'!C3)*(0-E15)/('Skill to Value'!D3-'Skill to Value'!C3)+E15</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5">
+        <f>(E14-'Skill to Value'!C3)*(0-E15)/('Skill to Value'!D3-'Skill to Value'!C3)+E15</f>
+        <v>3.3333333333333326E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1581,27 +1756,77 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="ScrollBar1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="D12" r:id="rId5">
+        <control shapeId="1028" r:id="rId4" name="SpikeTimingWindow">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D15" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>239486</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>10886</xdr:rowOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>527957</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>163286</xdr:rowOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="ScrollBar1"/>
+        <control shapeId="1028" r:id="rId4" name="SpikeTimingWindow"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="SpikeSkill">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="SpikeSkill"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId8" name="timingVar">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId8" name="timingVar"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5872F-1B39-4604-899D-E3C078F15A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A92B0-3A0E-480A-88AD-071BD7C6D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Player Skill</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>SToV(p_adj,rng_sp)</t>
+  </si>
+  <si>
+    <t>Timing Variance</t>
+  </si>
+  <si>
+    <t>Skill</t>
   </si>
 </sst>
 </file>
@@ -233,7 +239,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -277,11 +283,11 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,6 +315,2032 @@
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spike Speed Penalty</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0"/>
+              <a:t> Skill and Timing Variance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$34:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$35:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6666666666666672E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5555555555555556E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4444444444444446E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3333333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.222222222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1111111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8888888888888878E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$36:$L$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7777777777777784E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5555555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3333333333333338E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1111111111111114E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.888888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6666666666666669E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4444444444444441E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.222222222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7777777777777765E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$37:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6666666666666671E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6666666666666668E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6666666666666662E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9999999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6666666666666652E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5555555555555566E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1111111111111113E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.666666666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2222222222222227E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.888888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4444444444444446E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$39:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4444444444444453E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8888888888888906E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3333333333333338E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7777777777777781E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2222222222222227E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6666666666666672E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1111111111111114E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5555555555555562E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4444444444444446E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$40:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333327E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6666666666666654E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999985E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3333333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666663E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3333333333333327E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6666666666666658E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333319E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$41:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2222222222222227E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4444444444444453E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6666666666666688E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8888888888888906E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1111111111111113E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3333333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5555555555555557E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7777777777777781E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$42:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1111111111111113E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2222222222222227E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3333333333333344E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4444444444444453E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5555555555555566E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.666666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7777777777777784E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8888888888888906E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpikeTime!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SpikeTime!$B$43:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D398-4F6E-A04F-FE773E83B3C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1757280623"/>
+        <c:axId val="1757281103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1757280623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1757281103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1757281103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1757280623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,7 +2444,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>397330</xdr:colOff>
+          <xdr:colOff>397329</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>179614</xdr:rowOff>
         </xdr:to>
@@ -424,7 +2456,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3D9CC4-C673-2085-011A-09056B228883}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -470,7 +2502,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>397330</xdr:colOff>
+          <xdr:colOff>397329</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>179614</xdr:rowOff>
         </xdr:to>
@@ -482,7 +2514,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EDF033-2FB9-2838-646F-6DC3272F9B1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -528,7 +2560,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>397330</xdr:colOff>
+          <xdr:colOff>397329</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>179614</xdr:rowOff>
         </xdr:to>
@@ -540,7 +2572,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDE0BBB-491B-147B-1AFA-49AEB269168D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -575,6 +2607,42 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541565</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1194708</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>168727</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9B0017-A94F-780F-EFF7-EE054B6C936A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -931,14 +2999,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -1534,10 +3602,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1606,11 +3674,11 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <f>D12/100</f>
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s">
         <v>43</v>
@@ -1634,7 +3702,7 @@
       <c r="D14">
         <v>70</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f>D14/10</f>
         <v>7</v>
       </c>
@@ -1652,7 +3720,7 @@
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>D15/100</f>
         <v>0.1</v>
       </c>
@@ -1728,8 +3796,8 @@
       <c r="B24" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="5">
-        <f>(E14-'Skill to Value'!C3)*(0-E15)/('Skill to Value'!D3-'Skill to Value'!C3)+E15</f>
+      <c r="E24" s="4">
+        <f>E12*((E14-'Skill to Value'!C3)*(0-E15)/('Skill to Value'!D3-'Skill to Value'!C3)+E15)</f>
         <v>3.3333333333333326E-2</v>
       </c>
     </row>
@@ -1737,15 +3805,567 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f>(E14-'Skill to Value'!C3)*(0-E15)/('Skill to Value'!D3-'Skill to Value'!C3)+E15</f>
         <v>3.3333333333333326E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <f>B33+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" ref="D33:L33" si="0">C33+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <f>B$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <f>C$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <f>D$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <f>E$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.0000000000000006E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <f>F$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <f>G$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="4">
+        <f>H$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.06</v>
+      </c>
+      <c r="I34" s="4">
+        <f>I$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="J34" s="4">
+        <f>J$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K34" s="4">
+        <f>K$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.09</v>
+      </c>
+      <c r="L34" s="4">
+        <f>L$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f>A34+1</f>
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <f>B$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <f>C$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="D35" s="4">
+        <f>D$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.7777777777777778E-2</v>
+      </c>
+      <c r="E35" s="4">
+        <f>E$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.6666666666666672E-2</v>
+      </c>
+      <c r="F35" s="4">
+        <f>F$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.5555555555555556E-2</v>
+      </c>
+      <c r="G35" s="4">
+        <f>G$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="H35" s="4">
+        <f>H$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="I35" s="4">
+        <f>I$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.222222222222222E-2</v>
+      </c>
+      <c r="J35" s="4">
+        <f>J$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>7.1111111111111111E-2</v>
+      </c>
+      <c r="K35" s="4">
+        <f>K$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.08</v>
+      </c>
+      <c r="L35" s="4">
+        <f>L$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>8.8888888888888878E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" ref="A36:A43" si="1">A35+1</f>
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <f>B$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="4">
+        <f>C$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>7.7777777777777784E-3</v>
+      </c>
+      <c r="D36" s="4">
+        <f>D$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.5555555555555557E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <f>E$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.3333333333333338E-2</v>
+      </c>
+      <c r="F36" s="4">
+        <f>F$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.1111111111111114E-2</v>
+      </c>
+      <c r="G36" s="4">
+        <f>G$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="H36" s="4">
+        <f>H$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.6666666666666669E-2</v>
+      </c>
+      <c r="I36" s="4">
+        <f>I$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>5.4444444444444441E-2</v>
+      </c>
+      <c r="J36" s="4">
+        <f>J$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.222222222222222E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <f>K$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="L36" s="4">
+        <f>L$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>7.7777777777777765E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B37" s="4">
+        <f>B$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <f>C$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="D37" s="4">
+        <f>D$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="E37" s="4">
+        <f>E$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="F37" s="4">
+        <f>F$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="G37" s="4">
+        <f>G$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H37" s="4">
+        <f>H$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.04</v>
+      </c>
+      <c r="I37" s="4">
+        <f>I$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.6666666666666662E-2</v>
+      </c>
+      <c r="J37" s="4">
+        <f>J$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>5.333333333333333E-2</v>
+      </c>
+      <c r="K37" s="4">
+        <f>K$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="L37" s="4">
+        <f>L$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <f>B$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <f>C$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>5.5555555555555566E-3</v>
+      </c>
+      <c r="D38" s="4">
+        <f>D$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.1111111111111113E-2</v>
+      </c>
+      <c r="E38" s="4">
+        <f>E$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.666666666666667E-2</v>
+      </c>
+      <c r="F38" s="4">
+        <f>F$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.2222222222222227E-2</v>
+      </c>
+      <c r="G38" s="4">
+        <f>G$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="H38" s="4">
+        <f>H$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I38" s="4">
+        <f>I$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="J38" s="4">
+        <f>J$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <f>K$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="L38" s="4">
+        <f>L$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <f>B$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <f>C$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.4444444444444453E-3</v>
+      </c>
+      <c r="D39" s="4">
+        <f>D$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>8.8888888888888906E-3</v>
+      </c>
+      <c r="E39" s="4">
+        <f>E$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.3333333333333338E-2</v>
+      </c>
+      <c r="F39" s="4">
+        <f>F$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.7777777777777781E-2</v>
+      </c>
+      <c r="G39" s="4">
+        <f>G$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.2222222222222227E-2</v>
+      </c>
+      <c r="H39" s="4">
+        <f>H$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.6666666666666672E-2</v>
+      </c>
+      <c r="I39" s="4">
+        <f>I$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.1111111111111114E-2</v>
+      </c>
+      <c r="J39" s="4">
+        <f>J$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.5555555555555562E-2</v>
+      </c>
+      <c r="K39" s="4">
+        <f>K$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.04</v>
+      </c>
+      <c r="L39" s="4">
+        <f>L$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
+        <f>B$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <f>C$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.3333333333333327E-3</v>
+      </c>
+      <c r="D40" s="4">
+        <f>D$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.6666666666666654E-3</v>
+      </c>
+      <c r="E40" s="4">
+        <f>E$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="F40" s="4">
+        <f>F$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.3333333333333331E-2</v>
+      </c>
+      <c r="G40" s="4">
+        <f>G$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="H40" s="4">
+        <f>H$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.9999999999999993E-2</v>
+      </c>
+      <c r="I40" s="4">
+        <f>I$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.3333333333333327E-2</v>
+      </c>
+      <c r="J40" s="4">
+        <f>J$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.6666666666666658E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <f>K$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.9999999999999992E-2</v>
+      </c>
+      <c r="L40" s="4">
+        <f>L$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.3333333333333319E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B41" s="4">
+        <f>B$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <f>C$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.2222222222222227E-3</v>
+      </c>
+      <c r="D41" s="4">
+        <f>D$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.4444444444444453E-3</v>
+      </c>
+      <c r="E41" s="4">
+        <f>E$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.6666666666666688E-3</v>
+      </c>
+      <c r="F41" s="4">
+        <f>F$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>8.8888888888888906E-3</v>
+      </c>
+      <c r="G41" s="4">
+        <f>G$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.1111111111111113E-2</v>
+      </c>
+      <c r="H41" s="4">
+        <f>H$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.3333333333333336E-2</v>
+      </c>
+      <c r="I41" s="4">
+        <f>I$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.5555555555555557E-2</v>
+      </c>
+      <c r="J41" s="4">
+        <f>J$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.7777777777777781E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <f>K$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.02</v>
+      </c>
+      <c r="L41" s="4">
+        <f>L$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <f>C$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.1111111111111113E-3</v>
+      </c>
+      <c r="D42" s="4">
+        <f>D$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>2.2222222222222227E-3</v>
+      </c>
+      <c r="E42" s="4">
+        <f>E$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>3.3333333333333344E-3</v>
+      </c>
+      <c r="F42" s="4">
+        <f>F$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>4.4444444444444453E-3</v>
+      </c>
+      <c r="G42" s="4">
+        <f>G$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>5.5555555555555566E-3</v>
+      </c>
+      <c r="H42" s="4">
+        <f>H$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>6.666666666666668E-3</v>
+      </c>
+      <c r="I42" s="4">
+        <f>I$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>7.7777777777777784E-3</v>
+      </c>
+      <c r="J42" s="4">
+        <f>J$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>8.8888888888888906E-3</v>
+      </c>
+      <c r="K42" s="4">
+        <f>K$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="4">
+        <f>L$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B43" s="4">
+        <f>B$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <f>C$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <f>D$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <f>E$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <f>F$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <f>G$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <f>H$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <f>I$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <f>J$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f>K$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <f>L$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1756,19 +4376,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="SpikeTimingWindow">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D15" r:id="rId5">
+        <control shapeId="1026" r:id="rId4" name="timingVar">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
@@ -1776,7 +4396,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="SpikeTimingWindow"/>
+        <control shapeId="1026" r:id="rId4" name="timingVar"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1806,19 +4426,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId8" name="timingVar">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId9">
+        <control shapeId="1028" r:id="rId8" name="SpikeTimingWindow">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D15" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
@@ -1826,7 +4446,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId8" name="timingVar"/>
+        <control shapeId="1028" r:id="rId8" name="SpikeTimingWindow"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A92B0-3A0E-480A-88AD-071BD7C6D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C382AE5-64B6-4192-BBBC-BE7D864BFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Player Skill</t>
   </si>
@@ -231,17 +231,39 @@
   </si>
   <si>
     <t>Skill</t>
+  </si>
+  <si>
+    <t>Revisions</t>
+  </si>
+  <si>
+    <t>Don't need to subtract one, the animation only can run once</t>
+  </si>
+  <si>
+    <t>Spike Speed (mph)</t>
+  </si>
+  <si>
+    <t>Spike Speed (m/s)</t>
+  </si>
+  <si>
+    <t>Consider changing window from 0.1 to 0.25 for more variance and therefore effect on mis-timing</t>
+  </si>
+  <si>
+    <t>Range is -0.4 to -0.8, which means 20% - 60% of animation curve</t>
+  </si>
+  <si>
+    <t>REAL QUESTION:  what should the curve actually look like???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,16 +271,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -266,11 +310,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,12 +463,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -306,7 +551,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -314,6 +559,18 @@
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
@@ -484,34 +741,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000000000000002E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0000000000000004E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0000000000000006E-2</c:v>
+                  <c:v>7.5000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0000000000000008E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.06</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9999999999999993E-2</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.09</c:v>
+                  <c:v>0.22499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.9999999999999992E-2</c:v>
+                  <c:v>0.24999999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,7 +776,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000000-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -601,34 +858,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8888888888888889E-3</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7777777777777778E-2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6666666666666672E-2</c:v>
+                  <c:v>6.666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5555555555555556E-2</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3333333333333337E-2</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.222222222222222E-2</c:v>
+                  <c:v>0.15555555555555553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1111111111111111E-2</c:v>
+                  <c:v>0.17777777777777776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.08</c:v>
+                  <c:v>0.19999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8888888888888878E-2</c:v>
+                  <c:v>0.22222222222222218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,7 +893,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000001-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -718,34 +975,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7777777777777784E-3</c:v>
+                  <c:v>1.9444444444444445E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5555555555555557E-2</c:v>
+                  <c:v>3.888888888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3333333333333338E-2</c:v>
+                  <c:v>5.8333333333333341E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1111111111111114E-2</c:v>
+                  <c:v>7.7777777777777779E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.888888888888889E-2</c:v>
+                  <c:v>9.7222222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6666666666666669E-2</c:v>
+                  <c:v>0.11666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4444444444444441E-2</c:v>
+                  <c:v>0.1361111111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.222222222222222E-2</c:v>
+                  <c:v>0.15555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9999999999999993E-2</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7777777777777765E-2</c:v>
+                  <c:v>0.19444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,7 +1010,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000002-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -835,34 +1092,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>1.666666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>3.333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0000000000000004E-2</c:v>
+                  <c:v>5.000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>6.666666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>8.3333333333333343E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6666666666666662E-2</c:v>
+                  <c:v>0.11666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.333333333333333E-2</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9999999999999991E-2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6666666666666652E-2</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,7 +1127,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000003-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -952,34 +1209,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5555555555555566E-3</c:v>
+                  <c:v>1.388888888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1111111111111113E-2</c:v>
+                  <c:v>2.777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.666666666666667E-2</c:v>
+                  <c:v>4.1666666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2222222222222227E-2</c:v>
+                  <c:v>5.5555555555555559E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.777777777777778E-2</c:v>
+                  <c:v>6.9444444444444448E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.888888888888889E-2</c:v>
+                  <c:v>9.7222222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9999999999999996E-2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>0.13888888888888887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,7 +1244,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000004-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1069,34 +1326,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4444444444444453E-3</c:v>
+                  <c:v>1.1111111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8888888888888906E-3</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3333333333333338E-2</c:v>
+                  <c:v>3.333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7777777777777781E-2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2222222222222227E-2</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6666666666666672E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1111111111111114E-2</c:v>
+                  <c:v>7.7777777777777765E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5555555555555562E-2</c:v>
+                  <c:v>8.8888888888888878E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.04</c:v>
+                  <c:v>9.9999999999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>0.11111111111111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1361,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000005-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1188,34 +1445,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3333333333333327E-3</c:v>
+                  <c:v>8.333333333333335E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6666666666666654E-3</c:v>
+                  <c:v>1.666666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9999999999999985E-3</c:v>
+                  <c:v>2.5000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3333333333333331E-2</c:v>
+                  <c:v>3.333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666666666666663E-2</c:v>
+                  <c:v>4.1666666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9999999999999993E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3333333333333327E-2</c:v>
+                  <c:v>5.8333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6666666666666658E-2</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9999999999999992E-2</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3333333333333319E-2</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,7 +1480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000006-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1307,34 +1564,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2222222222222227E-3</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4444444444444453E-3</c:v>
+                  <c:v>1.1111111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6666666666666688E-3</c:v>
+                  <c:v>1.666666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8888888888888906E-3</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1111111111111113E-2</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3333333333333336E-2</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5555555555555557E-2</c:v>
+                  <c:v>3.8888888888888883E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7777777777777781E-2</c:v>
+                  <c:v>4.4444444444444439E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02</c:v>
+                  <c:v>4.9999999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2222222222222223E-2</c:v>
+                  <c:v>5.5555555555555546E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,7 +1599,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000007-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1426,34 +1683,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1111111111111113E-3</c:v>
+                  <c:v>2.7777777777777792E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2222222222222227E-3</c:v>
+                  <c:v>5.5555555555555584E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3333333333333344E-3</c:v>
+                  <c:v>8.3333333333333384E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4444444444444453E-3</c:v>
+                  <c:v>1.1111111111111117E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5555555555555566E-3</c:v>
+                  <c:v>1.3888888888888895E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.666666666666668E-3</c:v>
+                  <c:v>1.6666666666666673E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7777777777777784E-3</c:v>
+                  <c:v>1.9444444444444452E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8888888888888906E-3</c:v>
+                  <c:v>2.222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                  <c:v>2.5000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1111111111111112E-2</c:v>
+                  <c:v>2.7777777777777787E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,7 +1718,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000008-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1580,7 +1837,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D398-4F6E-A04F-FE773E83B3C8}"/>
+              <c16:uniqueId val="{00000009-4489-4FE2-AFC1-550A056DB691}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1651,7 +1908,6 @@
         <c:axId val="1757281103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2398,7 +2654,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>531118</xdr:colOff>
+      <xdr:colOff>531117</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>73567</xdr:rowOff>
     </xdr:to>
@@ -2610,26 +2866,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>541565</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16327</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1194708</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>168727</xdr:rowOff>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9B0017-A94F-780F-EFF7-EE054B6C936A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B328F1-1E4F-4931-B1AC-E69E81D87BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2643,6 +2901,180 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>27214</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>397329</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>179614</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="athletePower" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D22484-A5B9-9D3C-E19C-489B87EB85DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>108857</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>27214</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>397329</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>179614</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="distance" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67F0B95-100D-2902-5D2C-D8F04A18B5B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>119743</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152399</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>185057</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>59871</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="setPassAdjustment" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -3109,11 +3541,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19289AF4-DE8A-4F06-880E-3024ABD8F25C}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3291,7 +3723,7 @@
         <v>27.962749899999999</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q8" si="3">A3/(P3*(1-(ABS(D3)-O3)))</f>
+        <f t="shared" ref="Q3:Q9" si="3">A3/(P3*(1-(ABS(D3)-O3)))</f>
         <v>0.36444960087067324</v>
       </c>
       <c r="R3" t="b">
@@ -3592,6 +4024,12 @@
       <c r="R8" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q9" s="2">
+        <f ca="1">SpikeTime!E22/(SpikeTime!E26*(1-(ABS(SpikeTime!E24)-SpikeTime!E20)))</f>
+        <v>0.21567217828900073</v>
       </c>
     </row>
   </sheetData>
@@ -3602,14 +4040,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="5" max="5" width="9.15234375" customWidth="1"/>
     <col min="20" max="20" width="17.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3720,9 +4159,8 @@
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15" s="5">
-        <f>D15/100</f>
-        <v>0.1</v>
+      <c r="E15" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
@@ -3732,64 +4170,109 @@
       <c r="B16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="T16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <f>2+(0.1-2)*(E14/10)</f>
+        <v>0.67000000000000015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E18" s="4">
+        <f ca="1">RANDBETWEEN(-E17*100,E17*100)/100</f>
+        <v>-0.18</v>
+      </c>
+      <c r="T18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E19" s="5">
+        <f ca="1">MIN(MAX(E27+E18,1),10)</f>
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>IF(D20,0.05,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E21" s="2">
+        <f ca="1">E22/(E26*(1-E24-E20))</f>
+        <v>0.21567217828900073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22" s="5">
+        <f>D22/10</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3798,577 +4281,643 @@
       </c>
       <c r="E24" s="4">
         <f>E12*((E14-'Skill to Value'!C3)*(0-E15)/('Skill to Value'!D3-'Skill to Value'!C3)+E15)</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>8.3333333333333343E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4">
-        <f>(E14-'Skill to Value'!C3)*(0-E15)/('Skill to Value'!D3-'Skill to Value'!C3)+E15</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <f ca="1">(E19-'Skill to Value'!C3)*(E23-D23)/('Skill to Value'!D3-'Skill to Value'!C3)+D23</f>
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>70</v>
+      </c>
+      <c r="E27" s="5">
+        <f>D27/10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="26">
+        <f ca="1">E22/E21</f>
+        <v>25.501666666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="26">
+        <f ca="1">E28*2.23694</f>
+        <v>57.045698233333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="33" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="8">
         <v>0</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <f>B33+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="14">
         <f t="shared" ref="D33:L33" si="0">C33+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="15">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="15">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="15">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="16">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="8">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="8">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34">
+    <row r="34" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
         <v>1</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="11">
         <f>B$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="9">
         <f>C$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="D34" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D34" s="17">
         <f>D$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="E34" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E34" s="18">
         <f>E$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.0000000000000006E-2</v>
-      </c>
-      <c r="F34" s="4">
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="F34" s="18">
         <f>F$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="G34" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="18">
         <f>G$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.05</v>
-      </c>
-      <c r="H34" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="H34" s="18">
         <f>H$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.06</v>
-      </c>
-      <c r="I34" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I34" s="18">
         <f>I$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="J34" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J34" s="19">
         <f>J$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.08</v>
-      </c>
-      <c r="K34" s="4">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="K34" s="9">
         <f>K$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.09</v>
-      </c>
-      <c r="L34" s="4">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="L34" s="9">
         <f>L$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35">
+        <v>0.24999999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
         <f>A34+1</f>
         <v>2</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="12">
         <f>B$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="10">
         <f>C$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.8888888888888889E-3</v>
-      </c>
-      <c r="D35" s="4">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="D35" s="20">
         <f>D$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.7777777777777778E-2</v>
-      </c>
-      <c r="E35" s="4">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="E35" s="21">
         <f>E$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.6666666666666672E-2</v>
-      </c>
-      <c r="F35" s="4">
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="F35" s="21">
         <f>F$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.5555555555555556E-2</v>
-      </c>
-      <c r="G35" s="4">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="G35" s="21">
         <f>G$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="H35" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H35" s="21">
         <f>H$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.3333333333333337E-2</v>
-      </c>
-      <c r="I35" s="4">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I35" s="21">
         <f>I$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.222222222222222E-2</v>
-      </c>
-      <c r="J35" s="4">
+        <v>0.15555555555555553</v>
+      </c>
+      <c r="J35" s="22">
         <f>J$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>7.1111111111111111E-2</v>
-      </c>
-      <c r="K35" s="4">
+        <v>0.17777777777777776</v>
+      </c>
+      <c r="K35" s="10">
         <f>K$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.08</v>
-      </c>
-      <c r="L35" s="4">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L35" s="10">
         <f>L$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.8888888888888878E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36">
+        <v>0.22222222222222218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
         <f t="shared" ref="A36:A43" si="1">A35+1</f>
         <v>3</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="12">
         <f>B$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="10">
         <f>C$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>7.7777777777777784E-3</v>
-      </c>
-      <c r="D36" s="4">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="D36" s="20">
         <f>D$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.5555555555555557E-2</v>
-      </c>
-      <c r="E36" s="4">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="E36" s="21">
         <f>E$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.3333333333333338E-2</v>
-      </c>
-      <c r="F36" s="4">
+        <v>5.8333333333333341E-2</v>
+      </c>
+      <c r="F36" s="21">
         <f>F$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.1111111111111114E-2</v>
-      </c>
-      <c r="G36" s="4">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G36" s="21">
         <f>G$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.888888888888889E-2</v>
-      </c>
-      <c r="H36" s="4">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="H36" s="21">
         <f>H$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.6666666666666669E-2</v>
-      </c>
-      <c r="I36" s="4">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="I36" s="21">
         <f>I$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.4444444444444441E-2</v>
-      </c>
-      <c r="J36" s="4">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="J36" s="22">
         <f>J$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.222222222222222E-2</v>
-      </c>
-      <c r="K36" s="4">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="K36" s="10">
         <f>K$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="L36" s="4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L36" s="10">
         <f>L$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>7.7777777777777765E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37">
+        <v>0.19444444444444442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="12">
         <f>B$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="10">
         <f>C$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="D37" s="4">
+        <v>1.666666666666667E-2</v>
+      </c>
+      <c r="D37" s="20">
         <f>D$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="E37" s="4">
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="E37" s="21">
         <f>E$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="F37" s="4">
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="F37" s="21">
         <f>F$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="G37" s="4">
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="G37" s="21">
         <f>G$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="H37" s="4">
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="H37" s="21">
         <f>H$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.04</v>
-      </c>
-      <c r="I37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="21">
         <f>I$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.6666666666666662E-2</v>
-      </c>
-      <c r="J37" s="4">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="J37" s="22">
         <f>J$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.333333333333333E-2</v>
-      </c>
-      <c r="K37" s="4">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="K37" s="10">
         <f>K$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.9999999999999991E-2</v>
-      </c>
-      <c r="L37" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="L37" s="10">
         <f>L$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.6666666666666652E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="12">
         <f>B$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="10">
         <f>C$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.5555555555555566E-3</v>
-      </c>
-      <c r="D38" s="4">
+        <v>1.388888888888889E-2</v>
+      </c>
+      <c r="D38" s="20">
         <f>D$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.1111111111111113E-2</v>
-      </c>
-      <c r="E38" s="4">
+        <v>2.777777777777778E-2</v>
+      </c>
+      <c r="E38" s="21">
         <f>E$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.666666666666667E-2</v>
-      </c>
-      <c r="F38" s="4">
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="F38" s="21">
         <f>F$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.2222222222222227E-2</v>
-      </c>
-      <c r="G38" s="4">
+        <v>5.5555555555555559E-2</v>
+      </c>
+      <c r="G38" s="21">
         <f>G$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.777777777777778E-2</v>
-      </c>
-      <c r="H38" s="4">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="H38" s="21">
         <f>H$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I38" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I38" s="21">
         <f>I$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.888888888888889E-2</v>
-      </c>
-      <c r="J38" s="4">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="J38" s="22">
         <f>J$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="K38" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K38" s="10">
         <f>K$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="L38" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="L38" s="10">
         <f>L$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39">
+        <v>0.13888888888888887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="12">
         <f>B$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="10">
         <f>C$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444453E-3</v>
-      </c>
-      <c r="D39" s="4">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D39" s="20">
         <f>D$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.8888888888888906E-3</v>
-      </c>
-      <c r="E39" s="4">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="E39" s="21">
         <f>E$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.3333333333333338E-2</v>
-      </c>
-      <c r="F39" s="4">
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="F39" s="21">
         <f>F$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.7777777777777781E-2</v>
-      </c>
-      <c r="G39" s="4">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="G39" s="21">
         <f>G$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.2222222222222227E-2</v>
-      </c>
-      <c r="H39" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H39" s="21">
         <f>H$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.6666666666666672E-2</v>
-      </c>
-      <c r="I39" s="4">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I39" s="21">
         <f>I$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.1111111111111114E-2</v>
-      </c>
-      <c r="J39" s="4">
+        <v>7.7777777777777765E-2</v>
+      </c>
+      <c r="J39" s="22">
         <f>J$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.5555555555555562E-2</v>
-      </c>
-      <c r="K39" s="4">
+        <v>8.8888888888888878E-2</v>
+      </c>
+      <c r="K39" s="10">
         <f>K$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.04</v>
-      </c>
-      <c r="L39" s="4">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="L39" s="10">
         <f>L$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40">
+        <v>0.11111111111111109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="12">
         <f>B$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="10">
         <f>C$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.3333333333333327E-3</v>
-      </c>
-      <c r="D40" s="4">
+        <v>8.333333333333335E-3</v>
+      </c>
+      <c r="D40" s="20">
         <f>D$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.6666666666666654E-3</v>
-      </c>
-      <c r="E40" s="4">
+        <v>1.666666666666667E-2</v>
+      </c>
+      <c r="E40" s="21">
         <f>E$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>9.9999999999999985E-3</v>
-      </c>
-      <c r="F40" s="4">
+        <v>2.5000000000000005E-2</v>
+      </c>
+      <c r="F40" s="21">
         <f>F$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.3333333333333331E-2</v>
-      </c>
-      <c r="G40" s="4">
+        <v>3.333333333333334E-2</v>
+      </c>
+      <c r="G40" s="21">
         <f>G$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="H40" s="4">
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="H40" s="21">
         <f>H$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.9999999999999993E-2</v>
-      </c>
-      <c r="I40" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I40" s="21">
         <f>I$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.3333333333333327E-2</v>
-      </c>
-      <c r="J40" s="4">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="J40" s="22">
         <f>J$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.6666666666666658E-2</v>
-      </c>
-      <c r="K40" s="4">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K40" s="10">
         <f>K$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.9999999999999992E-2</v>
-      </c>
-      <c r="L40" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L40" s="10">
         <f>L$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.3333333333333319E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="12">
         <f>B$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="10">
         <f>C$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.2222222222222227E-3</v>
-      </c>
-      <c r="D41" s="4">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="D41" s="20">
         <f>D$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444453E-3</v>
-      </c>
-      <c r="E41" s="4">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E41" s="21">
         <f>E$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.6666666666666688E-3</v>
-      </c>
-      <c r="F41" s="4">
+        <v>1.666666666666667E-2</v>
+      </c>
+      <c r="F41" s="21">
         <f>F$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.8888888888888906E-3</v>
-      </c>
-      <c r="G41" s="4">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="G41" s="21">
         <f>G$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.1111111111111113E-2</v>
-      </c>
-      <c r="H41" s="4">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H41" s="21">
         <f>H$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.3333333333333336E-2</v>
-      </c>
-      <c r="I41" s="4">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I41" s="21">
         <f>I$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.5555555555555557E-2</v>
-      </c>
-      <c r="J41" s="4">
+        <v>3.8888888888888883E-2</v>
+      </c>
+      <c r="J41" s="22">
         <f>J$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.7777777777777781E-2</v>
-      </c>
-      <c r="K41" s="4">
+        <v>4.4444444444444439E-2</v>
+      </c>
+      <c r="K41" s="10">
         <f>K$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.02</v>
-      </c>
-      <c r="L41" s="4">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="L41" s="10">
         <f>L$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42">
+        <v>5.5555555555555546E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="12">
         <f>B$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="10">
         <f>C$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.1111111111111113E-3</v>
-      </c>
-      <c r="D42" s="4">
+        <v>2.7777777777777792E-3</v>
+      </c>
+      <c r="D42" s="20">
         <f>D$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.2222222222222227E-3</v>
-      </c>
-      <c r="E42" s="4">
+        <v>5.5555555555555584E-3</v>
+      </c>
+      <c r="E42" s="21">
         <f>E$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.3333333333333344E-3</v>
-      </c>
-      <c r="F42" s="4">
+        <v>8.3333333333333384E-3</v>
+      </c>
+      <c r="F42" s="21">
         <f>F$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444453E-3</v>
-      </c>
-      <c r="G42" s="4">
+        <v>1.1111111111111117E-2</v>
+      </c>
+      <c r="G42" s="21">
         <f>G$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.5555555555555566E-3</v>
-      </c>
-      <c r="H42" s="4">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="H42" s="21">
         <f>H$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.666666666666668E-3</v>
-      </c>
-      <c r="I42" s="4">
+        <v>1.6666666666666673E-2</v>
+      </c>
+      <c r="I42" s="21">
         <f>I$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>7.7777777777777784E-3</v>
-      </c>
-      <c r="J42" s="4">
+        <v>1.9444444444444452E-2</v>
+      </c>
+      <c r="J42" s="22">
         <f>J$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.8888888888888906E-3</v>
-      </c>
-      <c r="K42" s="4">
+        <v>2.222222222222223E-2</v>
+      </c>
+      <c r="K42" s="10">
         <f>K$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.01</v>
-      </c>
-      <c r="L42" s="4">
+        <v>2.5000000000000008E-2</v>
+      </c>
+      <c r="L42" s="10">
         <f>L$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43">
+        <v>2.7777777777777787E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="12">
         <f>B$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="10">
         <f>C$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="23">
         <f>D$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="24">
         <f>E$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="24">
         <f>F$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="24">
         <f>G$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="24">
         <f>H$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="24">
         <f>I$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="25">
         <f>J$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="10">
         <f>K$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="10">
         <f>L$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L44">
+        <f>_xlfn.VAR.P(B34:L43)</f>
+        <v>3.7905092592592604E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B34:L43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($A34=ROUNDDOWN($E$14,0),B$33=ROUNDDOWN($E$12,1))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4376,8 +4925,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="timingVar">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId5">
+        <control shapeId="1033" r:id="rId4" name="setPassAdjustment">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D20" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>119743</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>185057</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>59871</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId4" name="setPassAdjustment"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId6" name="distance">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D22" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId6" name="distance"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId8" name="athletePower">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D27" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId8" name="athletePower"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="SpikeTimingWindow">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D15" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId10" name="SpikeTimingWindow"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId12" name="SpikeSkill">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId12" name="SpikeSkill"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId14" name="timingVar">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
@@ -4396,57 +5070,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="timingVar"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="SpikeSkill">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="SpikeSkill"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="SpikeTimingWindow">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D15" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="SpikeTimingWindow"/>
+        <control shapeId="1026" r:id="rId14" name="timingVar"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C382AE5-64B6-4192-BBBC-BE7D864BFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D378C-74AC-4D19-B66E-55B7BCED54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Player Skill</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>REAL QUESTION:  what should the curve actually look like???</t>
+  </si>
+  <si>
+    <t>this is the denominator</t>
+  </si>
+  <si>
+    <t>Framers</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +289,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -445,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,9 +481,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -472,7 +489,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -503,7 +520,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,6 +537,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +575,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,7 +595,7 @@
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2924,7 +2948,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D22484-A5B9-9D3C-E19C-489B87EB85DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2982,7 +3006,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D67F0B95-100D-2902-5D2C-D8F04A18B5B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3024,7 +3048,7 @@
           <xdr:col>20</xdr:col>
           <xdr:colOff>119743</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>152399</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
@@ -3431,14 +3455,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -3723,7 +3747,7 @@
         <v>27.962749899999999</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q9" si="3">A3/(P3*(1-(ABS(D3)-O3)))</f>
+        <f t="shared" ref="Q3:Q8" si="3">A3/(P3*(1-(ABS(D3)-O3)))</f>
         <v>0.36444960087067324</v>
       </c>
       <c r="R3" t="b">
@@ -4028,8 +4052,8 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="Q9" s="2">
-        <f ca="1">SpikeTime!E22/(SpikeTime!E26*(1-(ABS(SpikeTime!E24)-SpikeTime!E20)))</f>
-        <v>0.21567217828900073</v>
+        <f ca="1">SpikeTime!E22/(SpikeTime!E25*(1-(ABS(SpikeTime!E24)-SpikeTime!E20)))</f>
+        <v>0.21621621621621623</v>
       </c>
     </row>
   </sheetData>
@@ -4040,10 +4064,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4115,7 +4139,7 @@
       <c r="D12">
         <v>100</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="28">
         <f>D12/100</f>
         <v>1</v>
       </c>
@@ -4195,7 +4219,7 @@
       </c>
       <c r="E18" s="4">
         <f ca="1">RANDBETWEEN(-E17*100,E17*100)/100</f>
-        <v>-0.18</v>
+        <v>-0.25</v>
       </c>
       <c r="T18" t="s">
         <v>12</v>
@@ -4209,8 +4233,8 @@
         <v>10</v>
       </c>
       <c r="E19" s="5">
-        <f ca="1">MIN(MAX(E27+E18,1),10)</f>
-        <v>6.82</v>
+        <f ca="1">MIN(MAX(E26+E18,1),10)</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
@@ -4223,9 +4247,12 @@
       <c r="D20" t="b">
         <v>0</v>
       </c>
-      <c r="E20">
-        <f>IF(D20,0.05,0)</f>
+      <c r="E20" s="29">
+        <f>IF(D20,F20,0)</f>
         <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.05</v>
       </c>
       <c r="T20" t="s">
         <v>52</v>
@@ -4239,8 +4266,8 @@
         <v>17</v>
       </c>
       <c r="E21" s="2">
-        <f ca="1">E22/(E26*(1-E24-E20))</f>
-        <v>0.21567217828900073</v>
+        <f ca="1">E22/(E25*(1-(E24-E20)))</f>
+        <v>0.21621621621621623</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
@@ -4265,10 +4292,10 @@
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="28">
         <v>22</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="28">
         <v>31</v>
       </c>
     </row>
@@ -4286,47 +4313,44 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E25" s="4">
+        <f ca="1">(E19-'Skill to Value'!C3)*(E23-D23)/('Skill to Value'!D3-'Skill to Value'!C3)+D23</f>
+        <v>27.75</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="4">
-        <f ca="1">(E19-'Skill to Value'!C3)*(E23-D23)/('Skill to Value'!D3-'Skill to Value'!C3)+D23</f>
-        <v>27.82</v>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>70</v>
+      </c>
+      <c r="E26" s="5">
+        <f>D26/10</f>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>70</v>
-      </c>
-      <c r="E27" s="5">
-        <f>D27/10</f>
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="E27" s="25">
+        <f ca="1">E22/E21</f>
+        <v>25.4375</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="26">
-        <f ca="1">E22/E21</f>
-        <v>25.501666666666665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="26">
-        <f ca="1">E28*2.23694</f>
-        <v>57.045698233333333</v>
+      <c r="E28" s="25">
+        <f ca="1">E27*2.23694</f>
+        <v>56.902161250000006</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.4">
@@ -4335,548 +4359,548 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>0</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <f>B33+0.1</f>
         <v>0.1</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <f t="shared" ref="D33:L33" si="0">C33+0.1</f>
         <v>0.2</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="14">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="15">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="7">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <f>B$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <f>C$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <f>D$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.05</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <f>E$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <f>F$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <f>G$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.125</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <f>H$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.15</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="17">
         <f>I$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="18">
         <f>J$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <f>K$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.22499999999999998</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <f>L$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.24999999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <f>A34+1</f>
         <v>2</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <f>B$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <f>C$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <f>D$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <f>E$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>6.666666666666668E-2</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <f>F$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <f>G$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <f>H$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="20">
         <f>I$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.15555555555555553</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="21">
         <f>J$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.17777777777777776</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <f>K$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="9">
         <f>L$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.22222222222222218</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <f t="shared" ref="A36:A43" si="1">A35+1</f>
         <v>3</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <f>B$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <f>C$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <f>D$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>3.888888888888889E-2</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <f>E$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>5.8333333333333341E-2</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <f>F$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="20">
         <f>G$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="20">
         <f>H$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="20">
         <f>I$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.1361111111111111</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="21">
         <f>J$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.15555555555555556</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <f>K$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <f>L$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.19444444444444442</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f>B$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <f>C$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.666666666666667E-2</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <f>D$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <f>E$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <f>F$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>6.666666666666668E-2</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="20">
         <f>G$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>8.3333333333333343E-2</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <f>H$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.1</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="20">
         <f>I$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <f>J$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <f>K$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.15</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="9">
         <f>L$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <f>B$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <f>C$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.388888888888889E-2</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <f>D$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.777777777777778E-2</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <f>E$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>4.1666666666666671E-2</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <f>F$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>5.5555555555555559E-2</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="20">
         <f>G$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="20">
         <f>H$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="20">
         <f>I$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>9.7222222222222224E-2</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="21">
         <f>J$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <f>K$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.125</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="9">
         <f>L$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.13888888888888887</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <f>B$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <f>C$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <f>D$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <f>E$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <f>F$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="20">
         <f>G$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="20">
         <f>H$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="20">
         <f>I$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>7.7777777777777765E-2</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="21">
         <f>J$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>8.8888888888888878E-2</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <f>K$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
         <f>L$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.11111111111111109</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <f>B$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <f>C$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>8.333333333333335E-3</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <f>D$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.666666666666667E-2</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <f>E$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.5000000000000005E-2</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <f>F$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>3.333333333333334E-2</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="20">
         <f>G$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>4.1666666666666671E-2</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="20">
         <f>H$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0.05</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="20">
         <f>I$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="21">
         <f>J$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="9">
         <f>K$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="9">
         <f>L$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <f>B$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <f>C$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <f>D$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <f>E$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.666666666666667E-2</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <f>F$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="20">
         <f>G$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="20">
         <f>H$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="20">
         <f>I$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>3.8888888888888883E-2</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="21">
         <f>J$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>4.4444444444444439E-2</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <f>K$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="9">
         <f>L$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>5.5555555555555546E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <f>B$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <f>C$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.7777777777777792E-3</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <f>D$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>5.5555555555555584E-3</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <f>E$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>8.3333333333333384E-3</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <f>F$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.1111111111111117E-2</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="20">
         <f>G$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="20">
         <f>H$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.6666666666666673E-2</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="20">
         <f>I$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>1.9444444444444452E-2</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="21">
         <f>J$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.222222222222223E-2</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <f>K$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.5000000000000008E-2</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="9">
         <f>L$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>2.7777777777777787E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <f>B$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <f>C$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="22">
         <f>D$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="23">
         <f>E$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="23">
         <f>F$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="23">
         <f>G$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="23">
         <f>H$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="23">
         <f>I$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="24">
         <f>J$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <f>K$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <f>L$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
         <v>0</v>
       </c>
@@ -4888,27 +4912,56 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B46" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="C46" s="31">
+        <f>(C$45-B$45)*B46</f>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B47" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="C47" s="31">
+        <f>(C$45-B$45)*B47</f>
+        <v>19.200000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" s="27" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="26" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4925,8 +4978,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId4" name="setPassAdjustment">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D20" r:id="rId5">
+        <control shapeId="1026" r:id="rId4" name="timingVar">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="timingVar"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="SpikeSkill">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="SpikeSkill"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="SpikeTimingWindow">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D15" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="SpikeTimingWindow"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId10" name="athletePower">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D26" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId10" name="athletePower"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId12" name="distance">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D22" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId12" name="distance"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId14" name="setPassAdjustment">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D20" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
@@ -4945,132 +5123,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId4" name="setPassAdjustment"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId6" name="distance">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D22" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId6" name="distance"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId8" name="athletePower">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D27" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId8" name="athletePower"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="SpikeTimingWindow">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D15" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="SpikeTimingWindow"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId12" name="SpikeSkill">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId12" name="SpikeSkill"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId14" name="timingVar">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId14" name="timingVar"/>
+        <control shapeId="1033" r:id="rId14" name="setPassAdjustment"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D378C-74AC-4D19-B66E-55B7BCED54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B978A96-8915-417C-99CF-6C7BF5D60B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>Player Skill</t>
   </si>
@@ -258,16 +258,38 @@
   </si>
   <si>
     <t>Framers</t>
+  </si>
+  <si>
+    <t>Ideal spike point in animation: frame 15</t>
+  </si>
+  <si>
+    <t>So if realistic is just 5 to 19, the variance should be how far off it is to those caps</t>
+  </si>
+  <si>
+    <t>Ideal Spike Point</t>
+  </si>
+  <si>
+    <t>Variance to Ideal</t>
+  </si>
+  <si>
+    <t>Adjustments (penalty, set) Multiplier</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Spike Skill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -288,7 +310,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,13 +324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,13 +559,34 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +618,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,10 +635,6 @@
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,7 +731,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$34</c:f>
+              <c:f>SpikeTime!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -715,7 +754,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -757,42 +796,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$34:$L$34</c:f>
+              <c:f>SpikeTime!$B$39:$L$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5000000000000011E-2</c:v>
+                  <c:v>0.32499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.22499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15</c:v>
+                  <c:v>2.5000000000000022E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>7.4999999999999956E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>0.17499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22499999999999998</c:v>
+                  <c:v>0.27499999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24999999999999997</c:v>
+                  <c:v>0.37499999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +848,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$35</c:f>
+              <c:f>SpikeTime!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -832,7 +871,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -874,42 +913,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$35:$L$35</c:f>
+              <c:f>SpikeTime!$B$40:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2222222222222223E-2</c:v>
+                  <c:v>0.47250000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>0.38250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.666666666666668E-2</c:v>
+                  <c:v>0.29249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8888888888888892E-2</c:v>
+                  <c:v>0.20249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.1125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>2.250000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15555555555555553</c:v>
+                  <c:v>6.7499999999999963E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17777777777777776</c:v>
+                  <c:v>0.15749999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19999999999999996</c:v>
+                  <c:v>0.24749999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22222222222222218</c:v>
+                  <c:v>0.33749999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,7 +965,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$36</c:f>
+              <c:f>SpikeTime!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -949,7 +988,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -991,42 +1030,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$36:$L$36</c:f>
+              <c:f>SpikeTime!$B$41:$L$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9444444444444445E-2</c:v>
+                  <c:v>0.42000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.888888888888889E-2</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8333333333333341E-2</c:v>
+                  <c:v>0.25999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7777777777777779E-2</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7222222222222224E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11666666666666667</c:v>
+                  <c:v>2.0000000000000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1361111111111111</c:v>
+                  <c:v>5.999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15555555555555556</c:v>
+                  <c:v>0.13999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.21999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19444444444444442</c:v>
+                  <c:v>0.29999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,7 +1082,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$37</c:f>
+              <c:f>SpikeTime!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1066,7 +1105,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1108,42 +1147,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$37:$L$37</c:f>
+              <c:f>SpikeTime!$B$42:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.666666666666667E-2</c:v>
+                  <c:v>0.36749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.333333333333334E-2</c:v>
+                  <c:v>0.29749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.000000000000001E-2</c:v>
+                  <c:v>0.22749999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.666666666666668E-2</c:v>
+                  <c:v>0.15749999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3333333333333343E-2</c:v>
+                  <c:v>8.7499999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>1.7500000000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11666666666666667</c:v>
+                  <c:v>5.2499999999999963E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.12249999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15</c:v>
+                  <c:v>0.19249999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.2624999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1199,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$38</c:f>
+              <c:f>SpikeTime!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1183,7 +1222,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1225,42 +1264,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$38:$L$38</c:f>
+              <c:f>SpikeTime!$B$43:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.388888888888889E-2</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.777777777777778E-2</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1666666666666671E-2</c:v>
+                  <c:v>0.19499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5555555555555559E-2</c:v>
+                  <c:v>0.13499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9444444444444448E-2</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>1.5000000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7222222222222224E-2</c:v>
+                  <c:v>4.4999999999999971E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.10499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.125</c:v>
+                  <c:v>0.16499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13888888888888887</c:v>
+                  <c:v>0.22499999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,7 +1316,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$39</c:f>
+              <c:f>SpikeTime!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1300,7 +1339,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1342,42 +1381,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$39:$L$39</c:f>
+              <c:f>SpikeTime!$B$44:$L$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1111111111111112E-2</c:v>
+                  <c:v>0.26250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2222222222222223E-2</c:v>
+                  <c:v>0.21249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.333333333333334E-2</c:v>
+                  <c:v>0.16249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4444444444444446E-2</c:v>
+                  <c:v>0.11249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>1.2500000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7777777777777765E-2</c:v>
+                  <c:v>3.7499999999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8888888888888878E-2</c:v>
+                  <c:v>8.7499999999999967E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9999999999999978E-2</c:v>
+                  <c:v>0.13749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11111111111111109</c:v>
+                  <c:v>0.18749999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,7 +1433,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$40</c:f>
+              <c:f>SpikeTime!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1419,7 +1458,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1461,42 +1500,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$40:$L$40</c:f>
+              <c:f>SpikeTime!$B$45:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.24999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.333333333333335E-3</c:v>
+                  <c:v>0.20999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.666666666666667E-2</c:v>
+                  <c:v>0.16999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000005E-2</c:v>
+                  <c:v>0.12999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.333333333333334E-2</c:v>
+                  <c:v>8.9999999999999969E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1666666666666671E-2</c:v>
+                  <c:v>4.9999999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05</c:v>
+                  <c:v>1.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8333333333333334E-2</c:v>
+                  <c:v>2.9999999999999975E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>6.9999999999999951E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.10999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.14999999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +1552,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$41</c:f>
+              <c:f>SpikeTime!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1538,7 +1577,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1580,42 +1619,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$41:$L$41</c:f>
+              <c:f>SpikeTime!$B$46:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.18750000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5555555555555558E-3</c:v>
+                  <c:v>0.15750000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1111111111111112E-2</c:v>
+                  <c:v>0.1275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.666666666666667E-2</c:v>
+                  <c:v>9.7500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2222222222222223E-2</c:v>
+                  <c:v>6.7500000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>3.7500000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>7.5000000000000075E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8888888888888883E-2</c:v>
+                  <c:v>2.2499999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4444444444444439E-2</c:v>
+                  <c:v>5.2499999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9999999999999989E-2</c:v>
+                  <c:v>8.249999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5555555555555546E-2</c:v>
+                  <c:v>0.11249999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,7 +1671,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$42</c:f>
+              <c:f>SpikeTime!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1657,7 +1696,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1699,42 +1738,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$42:$L$42</c:f>
+              <c:f>SpikeTime!$B$47:$L$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.12499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7777777777777792E-3</c:v>
+                  <c:v>0.10499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5555555555555584E-3</c:v>
+                  <c:v>8.4999999999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333384E-3</c:v>
+                  <c:v>6.4999999999999974E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1111111111111117E-2</c:v>
+                  <c:v>4.4999999999999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3888888888888895E-2</c:v>
+                  <c:v>2.4999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6666666666666673E-2</c:v>
+                  <c:v>5.0000000000000036E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9444444444444452E-2</c:v>
+                  <c:v>1.4999999999999987E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.222222222222223E-2</c:v>
+                  <c:v>3.4999999999999976E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5000000000000008E-2</c:v>
+                  <c:v>5.4999999999999973E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7777777777777787E-2</c:v>
+                  <c:v>7.4999999999999956E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,7 +1790,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>SpikeTime!$A$43</c:f>
+              <c:f>SpikeTime!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1776,7 +1815,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>SpikeTime!$B$33:$L$33</c:f>
+              <c:f>SpikeTime!$B$38:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1818,42 +1857,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SpikeTime!$B$43:$L$43</c:f>
+              <c:f>SpikeTime!$B$48:$L$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.2500000000000056E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.2500000000000047E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.2500000000000038E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.2500000000000022E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2500000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.2500000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.5000000000000044E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.5000000000000023E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.7500000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.7500000000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.7500000000000019E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2829,75 +2868,17 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>108857</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>27214</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>397329</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>179614</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="SpikeTimingWindow" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>5443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2931,13 +2912,13 @@
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>108857</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
           <xdr:colOff>397329</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>179614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2989,13 +2970,13 @@
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>108857</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>27214</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
           <xdr:colOff>397329</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>179614</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3047,14 +3028,14 @@
         <xdr:from>
           <xdr:col>20</xdr:col>
           <xdr:colOff>119743</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>22</xdr:col>
           <xdr:colOff>185057</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>59871</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>59870</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3455,14 +3436,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -4052,8 +4033,8 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="Q9" s="2">
-        <f ca="1">SpikeTime!E22/(SpikeTime!E25*(1-(ABS(SpikeTime!E24)-SpikeTime!E20)))</f>
-        <v>0.21621621621621623</v>
+        <f ca="1">SpikeTime!E24/(SpikeTime!E26*(1-(ABS(SpikeTime!E27)-SpikeTime!E28)))</f>
+        <v>0.19584300085601195</v>
       </c>
     </row>
   </sheetData>
@@ -4064,10 +4045,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:AE61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4137,838 +4118,1375 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12" s="28">
+        <v>62</v>
+      </c>
+      <c r="E12" s="32">
         <f>D12/100</f>
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="T12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>0.625</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14">
-        <v>70</v>
-      </c>
-      <c r="E14" s="5">
-        <f>D14/10</f>
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="E14" s="4">
+        <f>ABS(E12-E13)</f>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5">
+        <f>D16/10</f>
+        <v>7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <f>2+(0.1-2)*(E16/10)</f>
+        <v>0.67000000000000015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4">
+        <f ca="1">RANDBETWEEN(-E19*100,E19*100)/100</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21" s="5">
+        <f>D21/10</f>
+        <v>7</v>
+      </c>
+      <c r="V21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
+        <f ca="1">MIN(MAX(E21+E20,1),10)</f>
+        <v>7.14</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="V22" s="35">
+        <v>1</v>
+      </c>
+      <c r="W22" s="35">
+        <f>V22+1</f>
+        <v>2</v>
+      </c>
+      <c r="X22" s="35">
+        <f t="shared" ref="X22:AE22" si="0">W22+1</f>
+        <v>3</v>
+      </c>
+      <c r="Y22" s="35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z22" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AA22" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB22" s="35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AC22" s="35">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E17">
-        <f>2+(0.1-2)*(E14/10)</f>
-        <v>0.67000000000000015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="4">
-        <f ca="1">RANDBETWEEN(-E17*100,E17*100)/100</f>
-        <v>-0.25</v>
-      </c>
-      <c r="T18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="AD22" s="35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AE22" s="35">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E19" s="5">
-        <f ca="1">MIN(MAX(E26+E18,1),10)</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="29">
-        <f>IF(D20,F20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="T20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="2">
-        <f ca="1">E22/(E25*(1-(E24-E20)))</f>
-        <v>0.21621621621621623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="E23" s="2">
+        <f ca="1">E24/(E26*(1-(E27-E28)))</f>
+        <v>0.19584300085601195</v>
+      </c>
+      <c r="U23" s="6">
+        <v>1</v>
+      </c>
+      <c r="V23" s="36">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.89</v>
+      </c>
+      <c r="W23" s="37">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.885000000000002</v>
+      </c>
+      <c r="X23" s="37">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.88</v>
+      </c>
+      <c r="Y23" s="37">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.875</v>
+      </c>
+      <c r="Z23" s="37">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.87</v>
+      </c>
+      <c r="AA23" s="37">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.864999999999998</v>
+      </c>
+      <c r="AB23" s="37">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.86</v>
+      </c>
+      <c r="AC23" s="37">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.855</v>
+      </c>
+      <c r="AD23" s="37">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.85</v>
+      </c>
+      <c r="AE23" s="37">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.844999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>55</v>
       </c>
-      <c r="E22" s="5">
-        <f>D22/10</f>
+      <c r="E24" s="5">
+        <f>D24/10</f>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="U24" s="6">
+        <f>U23+1</f>
+        <v>2</v>
+      </c>
+      <c r="V24" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.901</v>
+      </c>
+      <c r="W24" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.8965</v>
+      </c>
+      <c r="X24" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.892000000000003</v>
+      </c>
+      <c r="Y24" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.887500000000003</v>
+      </c>
+      <c r="Z24" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.883000000000003</v>
+      </c>
+      <c r="AA24" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.878500000000003</v>
+      </c>
+      <c r="AB24" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.874000000000002</v>
+      </c>
+      <c r="AC24" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.869500000000002</v>
+      </c>
+      <c r="AD24" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.865000000000002</v>
+      </c>
+      <c r="AE24" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.860500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D25" s="26">
         <v>22</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E25" s="26">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="4">
-        <f>E12*((E14-'Skill to Value'!C3)*(0-E15)/('Skill to Value'!D3-'Skill to Value'!C3)+E15)</f>
-        <v>8.3333333333333343E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="U25" s="6">
+        <f t="shared" ref="U25:U32" si="1">U24+1</f>
+        <v>3</v>
+      </c>
+      <c r="V25" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.911999999999999</v>
+      </c>
+      <c r="W25" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.908000000000001</v>
+      </c>
+      <c r="X25" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.904</v>
+      </c>
+      <c r="Y25" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.9</v>
+      </c>
+      <c r="Z25" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.896000000000001</v>
+      </c>
+      <c r="AA25" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.891999999999999</v>
+      </c>
+      <c r="AB25" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.887999999999998</v>
+      </c>
+      <c r="AC25" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.884</v>
+      </c>
+      <c r="AD25" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.88</v>
+      </c>
+      <c r="AE25" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.876000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="4">
-        <f ca="1">(E19-'Skill to Value'!C3)*(E23-D23)/('Skill to Value'!D3-'Skill to Value'!C3)+D23</f>
-        <v>27.75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>70</v>
-      </c>
-      <c r="E26" s="5">
-        <f>D26/10</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="25">
-        <f ca="1">E22/E21</f>
-        <v>25.4375</v>
-      </c>
-      <c r="F27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="25">
-        <f ca="1">E27*2.23694</f>
-        <v>56.902161250000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7">
-        <f>B33+0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="13">
-        <f t="shared" ref="D33:L33" si="0">C33+0.1</f>
-        <v>0.2</v>
-      </c>
-      <c r="E33" s="14">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F33" s="14">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="G33" s="14">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="14">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="0"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="K33" s="7">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="6">
-        <v>1</v>
-      </c>
-      <c r="B34" s="10">
-        <f>B$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
-        <f>C$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D34" s="16">
-        <f>D$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.05</v>
-      </c>
-      <c r="E34" s="17">
-        <f>E$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="F34" s="17">
-        <f>F$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="17">
-        <f>G$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.125</v>
-      </c>
-      <c r="H34" s="17">
-        <f>H$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.15</v>
-      </c>
-      <c r="I34" s="17">
-        <f>I$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="J34" s="18">
-        <f>J$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="K34" s="8">
-        <f>K$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="L34" s="8">
-        <f>L$33*(($A34-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.24999999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="6">
-        <f>A34+1</f>
-        <v>2</v>
-      </c>
-      <c r="B35" s="11">
-        <f>B$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="9">
-        <f>C$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="D35" s="19">
-        <f>D$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="E35" s="20">
-        <f>E$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.666666666666668E-2</v>
-      </c>
-      <c r="F35" s="20">
-        <f>F$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="G35" s="20">
-        <f>G$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H35" s="20">
-        <f>H$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="I35" s="20">
-        <f>I$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.15555555555555553</v>
-      </c>
-      <c r="J35" s="21">
-        <f>J$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.17777777777777776</v>
-      </c>
-      <c r="K35" s="9">
-        <f>K$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="L35" s="9">
-        <f>L$33*(($A35-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.22222222222222218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="6">
-        <f t="shared" ref="A36:A43" si="1">A35+1</f>
-        <v>3</v>
-      </c>
-      <c r="B36" s="11">
-        <f>B$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="9">
-        <f>C$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.9444444444444445E-2</v>
-      </c>
-      <c r="D36" s="19">
-        <f>D$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.888888888888889E-2</v>
-      </c>
-      <c r="E36" s="20">
-        <f>E$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.8333333333333341E-2</v>
-      </c>
-      <c r="F36" s="20">
-        <f>F$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="G36" s="20">
-        <f>G$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="H36" s="20">
-        <f>H$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="I36" s="20">
-        <f>I$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.1361111111111111</v>
-      </c>
-      <c r="J36" s="21">
-        <f>J$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="K36" s="9">
-        <f>K$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="L36" s="9">
-        <f>L$33*(($A36-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.19444444444444442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="6">
+      <c r="E26" s="4">
+        <f ca="1">(E22-'Skill to Value'!C3)*(E25-D25)/('Skill to Value'!D3-'Skill to Value'!C3)+D25</f>
+        <v>28.14</v>
+      </c>
+      <c r="U26" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B37" s="11">
-        <f>B$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="9">
-        <f>C$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.666666666666667E-2</v>
-      </c>
-      <c r="D37" s="19">
-        <f>D$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.333333333333334E-2</v>
-      </c>
-      <c r="E37" s="20">
-        <f>E$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="F37" s="20">
-        <f>F$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.666666666666668E-2</v>
-      </c>
-      <c r="G37" s="20">
-        <f>G$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.3333333333333343E-2</v>
-      </c>
-      <c r="H37" s="20">
-        <f>H$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I37" s="20">
-        <f>I$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="J37" s="21">
-        <f>J$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="K37" s="9">
-        <f>K$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.15</v>
-      </c>
-      <c r="L37" s="9">
-        <f>L$33*(($A37-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="6">
+      <c r="V26" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.923000000000002</v>
+      </c>
+      <c r="W26" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.919500000000003</v>
+      </c>
+      <c r="X26" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.916</v>
+      </c>
+      <c r="Y26" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.912500000000001</v>
+      </c>
+      <c r="Z26" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.909000000000002</v>
+      </c>
+      <c r="AA26" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.9055</v>
+      </c>
+      <c r="AB26" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.902000000000001</v>
+      </c>
+      <c r="AC26" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.898500000000002</v>
+      </c>
+      <c r="AD26" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.895000000000003</v>
+      </c>
+      <c r="AE26" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.891500000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="4">
+        <f>E14*((E16-'Skill to Value'!C3)*(D17-E17)/('Skill to Value'!D3-'Skill to Value'!C3)+E17)</f>
+        <v>2.0000000000000013E-3</v>
+      </c>
+      <c r="U27" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B38" s="11">
-        <f>B$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
+      <c r="V27" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.934000000000001</v>
+      </c>
+      <c r="W27" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.931000000000001</v>
+      </c>
+      <c r="X27" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.928000000000001</v>
+      </c>
+      <c r="Y27" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.925000000000001</v>
+      </c>
+      <c r="Z27" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.922000000000001</v>
+      </c>
+      <c r="AA27" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.919</v>
+      </c>
+      <c r="AB27" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.916</v>
+      </c>
+      <c r="AC27" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.913</v>
+      </c>
+      <c r="AD27" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.91</v>
+      </c>
+      <c r="AE27" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="b">
         <v>0</v>
       </c>
-      <c r="C38" s="9">
-        <f>C$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.388888888888889E-2</v>
-      </c>
-      <c r="D38" s="19">
-        <f>D$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.777777777777778E-2</v>
-      </c>
-      <c r="E38" s="20">
-        <f>E$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.1666666666666671E-2</v>
-      </c>
-      <c r="F38" s="20">
-        <f>F$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.5555555555555559E-2</v>
-      </c>
-      <c r="G38" s="20">
-        <f>G$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="H38" s="20">
-        <f>H$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="I38" s="20">
-        <f>I$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="J38" s="21">
-        <f>J$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K38" s="9">
-        <f>K$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.125</v>
-      </c>
-      <c r="L38" s="9">
-        <f>L$33*(($A38-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.13888888888888887</v>
+      <c r="E28" s="27">
+        <f>IF(D28,F28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V28" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.945</v>
+      </c>
+      <c r="W28" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.942500000000003</v>
+      </c>
+      <c r="X28" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.94</v>
+      </c>
+      <c r="Y28" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.9375</v>
+      </c>
+      <c r="Z28" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.935000000000002</v>
+      </c>
+      <c r="AA28" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.932500000000001</v>
+      </c>
+      <c r="AB28" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.93</v>
+      </c>
+      <c r="AC28" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.927500000000002</v>
+      </c>
+      <c r="AD28" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.925000000000001</v>
+      </c>
+      <c r="AE28" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.922500000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="4">
+        <f>(1-(E27-E28))</f>
+        <v>0.998</v>
+      </c>
+      <c r="U29" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="V29" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.956</v>
+      </c>
+      <c r="W29" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.954000000000001</v>
+      </c>
+      <c r="X29" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.951999999999998</v>
+      </c>
+      <c r="Y29" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.95</v>
+      </c>
+      <c r="Z29" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.948</v>
+      </c>
+      <c r="AA29" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.946000000000002</v>
+      </c>
+      <c r="AB29" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.943999999999999</v>
+      </c>
+      <c r="AC29" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.942</v>
+      </c>
+      <c r="AD29" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.94</v>
+      </c>
+      <c r="AE29" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.937999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="25">
+        <f ca="1">E26*E29</f>
+        <v>28.08372</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="V30" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.966999999999999</v>
+      </c>
+      <c r="W30" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.965499999999999</v>
+      </c>
+      <c r="X30" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.963999999999999</v>
+      </c>
+      <c r="Y30" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.962499999999999</v>
+      </c>
+      <c r="Z30" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.960999999999999</v>
+      </c>
+      <c r="AA30" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.959499999999998</v>
+      </c>
+      <c r="AB30" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.957999999999998</v>
+      </c>
+      <c r="AC30" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.956499999999998</v>
+      </c>
+      <c r="AD30" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.954999999999998</v>
+      </c>
+      <c r="AE30" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.953499999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="U31" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="V31" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.978000000000002</v>
+      </c>
+      <c r="W31" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.977</v>
+      </c>
+      <c r="X31" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.975999999999999</v>
+      </c>
+      <c r="Y31" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.975000000000001</v>
+      </c>
+      <c r="Z31" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.974</v>
+      </c>
+      <c r="AA31" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.972999999999999</v>
+      </c>
+      <c r="AB31" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.972000000000001</v>
+      </c>
+      <c r="AC31" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.971</v>
+      </c>
+      <c r="AD31" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.97</v>
+      </c>
+      <c r="AE31" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.969000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="25">
+        <f ca="1">E24/E23</f>
+        <v>28.08372</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V32" s="38">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>21.988999999999997</v>
+      </c>
+      <c r="W32" s="39">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>22.988499999999998</v>
+      </c>
+      <c r="X32" s="39">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>23.988</v>
+      </c>
+      <c r="Y32" s="39">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>24.987499999999997</v>
+      </c>
+      <c r="Z32" s="39">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>25.986999999999998</v>
+      </c>
+      <c r="AA32" s="39">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>26.986499999999999</v>
+      </c>
+      <c r="AB32" s="39">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>27.985999999999997</v>
+      </c>
+      <c r="AC32" s="39">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>28.985499999999998</v>
+      </c>
+      <c r="AD32" s="39">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>29.984999999999999</v>
+      </c>
+      <c r="AE32" s="39">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
+        <v>30.984499999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="25">
+        <f ca="1">E32*2.23694</f>
+        <v>62.821596616800001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <f>B38+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="13">
+        <f t="shared" ref="D38:L38" si="2">C38+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B39" s="11">
-        <f>B$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
-        <f>C$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="D39" s="19">
-        <f>D$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="E39" s="20">
-        <f>E$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.333333333333334E-2</v>
-      </c>
-      <c r="F39" s="20">
-        <f>F$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="G39" s="20">
-        <f>G$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="H39" s="20">
-        <f>H$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I39" s="20">
-        <f>I$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>7.7777777777777765E-2</v>
-      </c>
-      <c r="J39" s="21">
-        <f>J$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.8888888888888878E-2</v>
-      </c>
-      <c r="K39" s="9">
-        <f>K$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="L39" s="9">
-        <f>L$33*(($A39-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.11111111111111109</v>
+        <v>1</v>
+      </c>
+      <c r="B39" s="10">
+        <f>ABS(B$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.625</v>
+      </c>
+      <c r="C39" s="8">
+        <f>ABS(C$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D39" s="16">
+        <f>ABS(D$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E39" s="17">
+        <f>ABS(E$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="F39" s="17">
+        <f>ABS(F$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="G39" s="17">
+        <f>ABS(G$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.125</v>
+      </c>
+      <c r="H39" s="17">
+        <f>ABS(H$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="I39" s="17">
+        <f>ABS(I$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+      <c r="J39" s="18">
+        <f>ABS(J$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.17499999999999993</v>
+      </c>
+      <c r="K39" s="8">
+        <f>ABS(K$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.27499999999999991</v>
+      </c>
+      <c r="L39" s="8">
+        <f>ABS(L$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.37499999999999989</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>A39+1</f>
+        <v>2</v>
       </c>
       <c r="B40" s="11">
-        <f>B$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
+        <f>ABS(B$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.5625</v>
       </c>
       <c r="C40" s="9">
-        <f>C$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.333333333333335E-3</v>
+        <f>ABS(C$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.47250000000000003</v>
       </c>
       <c r="D40" s="19">
-        <f>D$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.666666666666667E-2</v>
+        <f>ABS(D$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.38250000000000001</v>
       </c>
       <c r="E40" s="20">
-        <f>E$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.5000000000000005E-2</v>
+        <f>ABS(E$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.29249999999999998</v>
       </c>
       <c r="F40" s="20">
-        <f>F$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.333333333333334E-2</v>
+        <f>ABS(F$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.20249999999999999</v>
       </c>
       <c r="G40" s="20">
-        <f>G$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.1666666666666671E-2</v>
+        <f>ABS(G$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.1125</v>
       </c>
       <c r="H40" s="20">
-        <f>H$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0.05</v>
+        <f>ABS(H$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.250000000000002E-2</v>
       </c>
       <c r="I40" s="20">
-        <f>I$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.8333333333333334E-2</v>
+        <f>ABS(I$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>6.7499999999999963E-2</v>
       </c>
       <c r="J40" s="21">
-        <f>J$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>6.6666666666666666E-2</v>
+        <f>ABS(J$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.15749999999999995</v>
       </c>
       <c r="K40" s="9">
-        <f>K$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>7.4999999999999997E-2</v>
+        <f>ABS(K$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.24749999999999991</v>
       </c>
       <c r="L40" s="9">
-        <f>L$33*(($A40-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.3333333333333329E-2</v>
+        <f>ABS(L$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.33749999999999991</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" ref="A41:A48" si="3">A40+1</f>
+        <v>3</v>
       </c>
       <c r="B41" s="11">
-        <f>B$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
+        <f>ABS(B$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.5</v>
       </c>
       <c r="C41" s="9">
-        <f>C$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.5555555555555558E-3</v>
+        <f>ABS(C$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.42000000000000004</v>
       </c>
       <c r="D41" s="19">
-        <f>D$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.1111111111111112E-2</v>
+        <f>ABS(D$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.34</v>
       </c>
       <c r="E41" s="20">
-        <f>E$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.666666666666667E-2</v>
+        <f>ABS(E$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.25999999999999995</v>
       </c>
       <c r="F41" s="20">
-        <f>F$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.2222222222222223E-2</v>
+        <f>ABS(F$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.18</v>
       </c>
       <c r="G41" s="20">
-        <f>G$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.7777777777777776E-2</v>
+        <f>ABS(G$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.1</v>
       </c>
       <c r="H41" s="20">
-        <f>H$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.3333333333333333E-2</v>
+        <f>ABS(H$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="I41" s="20">
-        <f>I$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>3.8888888888888883E-2</v>
+        <f>ABS(I$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>5.999999999999997E-2</v>
       </c>
       <c r="J41" s="21">
-        <f>J$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.4444444444444439E-2</v>
+        <f>ABS(J$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.13999999999999996</v>
       </c>
       <c r="K41" s="9">
-        <f>K$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>4.9999999999999989E-2</v>
+        <f>ABS(K$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.21999999999999995</v>
       </c>
       <c r="L41" s="9">
-        <f>L$33*(($A41-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.5555555555555546E-2</v>
+        <f>ABS(L$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="B42" s="11">
-        <f>B$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
+        <f>ABS(B$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.4375</v>
       </c>
       <c r="C42" s="9">
-        <f>C$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.7777777777777792E-3</v>
+        <f>ABS(C$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.36749999999999999</v>
       </c>
       <c r="D42" s="19">
-        <f>D$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>5.5555555555555584E-3</v>
+        <f>ABS(D$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.29749999999999999</v>
       </c>
       <c r="E42" s="20">
-        <f>E$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>8.3333333333333384E-3</v>
+        <f>ABS(E$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.22749999999999995</v>
       </c>
       <c r="F42" s="20">
-        <f>F$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.1111111111111117E-2</v>
+        <f>ABS(F$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.15749999999999997</v>
       </c>
       <c r="G42" s="20">
-        <f>G$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.3888888888888895E-2</v>
+        <f>ABS(G$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="H42" s="20">
-        <f>H$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.6666666666666673E-2</v>
+        <f>ABS(H$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>1.7500000000000016E-2</v>
       </c>
       <c r="I42" s="20">
-        <f>I$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>1.9444444444444452E-2</v>
+        <f>ABS(I$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>5.2499999999999963E-2</v>
       </c>
       <c r="J42" s="21">
-        <f>J$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.222222222222223E-2</v>
+        <f>ABS(J$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.12249999999999994</v>
       </c>
       <c r="K42" s="9">
-        <f>K$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.5000000000000008E-2</v>
+        <f>ABS(K$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.19249999999999992</v>
       </c>
       <c r="L42" s="9">
-        <f>L$33*(($A42-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>2.7777777777777787E-2</v>
+        <f>ABS(L$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.2624999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B43" s="11">
+        <f>ABS(B$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.375</v>
+      </c>
+      <c r="C43" s="9">
+        <f>ABS(C$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.315</v>
+      </c>
+      <c r="D43" s="19">
+        <f>ABS(D$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.255</v>
+      </c>
+      <c r="E43" s="20">
+        <f>ABS(E$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.19499999999999998</v>
+      </c>
+      <c r="F43" s="20">
+        <f>ABS(F$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.13499999999999998</v>
+      </c>
+      <c r="G43" s="20">
+        <f>ABS(G$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H43" s="20">
+        <f>ABS(H$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="I43" s="20">
+        <f>ABS(I$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>4.4999999999999971E-2</v>
+      </c>
+      <c r="J43" s="21">
+        <f>ABS(J$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.10499999999999995</v>
+      </c>
+      <c r="K43" s="9">
+        <f>ABS(K$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.16499999999999995</v>
+      </c>
+      <c r="L43" s="9">
+        <f>ABS(L$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.22499999999999992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B44" s="11">
+        <f>ABS(B$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="C44" s="9">
+        <f>ABS(C$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="D44" s="19">
+        <f>ABS(D$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="E44" s="20">
+        <f>ABS(E$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.16249999999999998</v>
+      </c>
+      <c r="F44" s="20">
+        <f>ABS(F$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="G44" s="20">
+        <f>ABS(G$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H44" s="20">
+        <f>ABS(H$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>1.2500000000000011E-2</v>
+      </c>
+      <c r="I44" s="20">
+        <f>ABS(I$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>3.7499999999999978E-2</v>
+      </c>
+      <c r="J44" s="21">
+        <f>ABS(J$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>8.7499999999999967E-2</v>
+      </c>
+      <c r="K44" s="9">
+        <f>ABS(K$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.13749999999999996</v>
+      </c>
+      <c r="L44" s="9">
+        <f>ABS(L$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.18749999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B45" s="11">
+        <f>ABS(B$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="C45" s="9">
+        <f>ABS(C$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="D45" s="19">
+        <f>ABS(D$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.16999999999999996</v>
+      </c>
+      <c r="E45" s="20">
+        <f>ABS(E$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.12999999999999995</v>
+      </c>
+      <c r="F45" s="20">
+        <f>ABS(F$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="G45" s="20">
+        <f>ABS(G$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="H45" s="20">
+        <f>ABS(H$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>1.0000000000000007E-2</v>
+      </c>
+      <c r="I45" s="20">
+        <f>ABS(I$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.9999999999999975E-2</v>
+      </c>
+      <c r="J45" s="21">
+        <f>ABS(J$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="K45" s="9">
+        <f>ABS(K$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.10999999999999995</v>
+      </c>
+      <c r="L45" s="9">
+        <f>ABS(L$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B46" s="11">
+        <f>ABS(B$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.18750000000000003</v>
+      </c>
+      <c r="C46" s="9">
+        <f>ABS(C$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.15750000000000003</v>
+      </c>
+      <c r="D46" s="19">
+        <f>ABS(D$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.1275</v>
+      </c>
+      <c r="E46" s="20">
+        <f>ABS(E$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="F46" s="20">
+        <f>ABS(F$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="G46" s="20">
+        <f>ABS(G$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="H46" s="20">
+        <f>ABS(H$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>7.5000000000000075E-3</v>
+      </c>
+      <c r="I46" s="20">
+        <f>ABS(I$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.2499999999999989E-2</v>
+      </c>
+      <c r="J46" s="21">
+        <f>ABS(J$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>5.2499999999999991E-2</v>
+      </c>
+      <c r="K46" s="9">
+        <f>ABS(K$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>8.249999999999999E-2</v>
+      </c>
+      <c r="L46" s="9">
+        <f>ABS(L$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.11249999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B47" s="11">
+        <f>ABS(B$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="C47" s="9">
+        <f>ABS(C$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>0.10499999999999998</v>
+      </c>
+      <c r="D47" s="19">
+        <f>ABS(D$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>8.4999999999999978E-2</v>
+      </c>
+      <c r="E47" s="20">
+        <f>ABS(E$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>6.4999999999999974E-2</v>
+      </c>
+      <c r="F47" s="20">
+        <f>ABS(F$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>4.4999999999999984E-2</v>
+      </c>
+      <c r="G47" s="20">
+        <f>ABS(G$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="H47" s="20">
+        <f>ABS(H$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>5.0000000000000036E-3</v>
+      </c>
+      <c r="I47" s="20">
+        <f>ABS(I$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>1.4999999999999987E-2</v>
+      </c>
+      <c r="J47" s="21">
+        <f>ABS(J$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>3.4999999999999976E-2</v>
+      </c>
+      <c r="K47" s="9">
+        <f>ABS(K$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>5.4999999999999973E-2</v>
+      </c>
+      <c r="L47" s="9">
+        <f>ABS(L$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>7.4999999999999956E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="6">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B43" s="11">
-        <f>B$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="9">
-        <f>C$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="22">
-        <f>D$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="23">
-        <f>E$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="23">
-        <f>F$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="23">
-        <f>G$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="23">
-        <f>H$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="23">
-        <f>I$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="24">
-        <f>J$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
-        <f>K$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <f>L$33*(($A43-'Skill to Value'!$C$3)*(0-$E$15)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L44">
-        <f>_xlfn.VAR.P(B34:L43)</f>
-        <v>3.7905092592592604E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+      <c r="B48" s="11">
+        <f>ABS(B$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="C48" s="9">
+        <f>ABS(C$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>5.2500000000000047E-2</v>
+      </c>
+      <c r="D48" s="22">
+        <f>ABS(D$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>4.2500000000000038E-2</v>
+      </c>
+      <c r="E48" s="23">
+        <f>ABS(E$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>3.2500000000000022E-2</v>
+      </c>
+      <c r="F48" s="23">
+        <f>ABS(F$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.2500000000000017E-2</v>
+      </c>
+      <c r="G48" s="23">
+        <f>ABS(G$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>1.2500000000000011E-2</v>
+      </c>
+      <c r="H48" s="23">
+        <f>ABS(H$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.5000000000000044E-3</v>
+      </c>
+      <c r="I48" s="23">
+        <f>ABS(I$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>7.5000000000000023E-3</v>
+      </c>
+      <c r="J48" s="24">
+        <f>ABS(J$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>1.7500000000000009E-2</v>
+      </c>
+      <c r="K48" s="9">
+        <f>ABS(K$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>2.7500000000000014E-2</v>
+      </c>
+      <c r="L48" s="9">
+        <f>ABS(L$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
+        <v>3.7500000000000019E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L49" s="31" t="str">
+        <f>"Var: "&amp;TEXT(_xlfn.VAR.P(B39:L48),"0.00000")</f>
+        <v>Var: 0.01931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>72</v>
       </c>
-      <c r="B45">
+      <c r="B50">
         <v>1</v>
       </c>
-      <c r="C45">
+      <c r="C50">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B46" s="30">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B51" s="28">
         <v>0.2</v>
       </c>
-      <c r="C46" s="31">
-        <f>(C$45-B$45)*B46</f>
+      <c r="C51" s="29">
+        <f>(C$50-B$50)*B51</f>
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B47" s="30">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B52" s="28">
         <v>0.8</v>
       </c>
-      <c r="C47" s="31">
-        <f>(C$45-B$45)*B47</f>
+      <c r="C52" s="29">
+        <f>(C$50-B$50)*B52</f>
         <v>19.200000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" s="12" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B53" s="33">
+        <f>C53/(C$50-B$50)</f>
+        <v>0.625</v>
+      </c>
+      <c r="C53" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A53" s="26" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="40" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B34:L43">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A34=ROUNDDOWN($E$14,0),B$33=ROUNDDOWN($E$12,1))</formula>
+  <conditionalFormatting sqref="B39:L48 V23:AE32">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND($A23=ROUNDDOWN($E$16,0),B$38=ROUNDDOWN($E$12,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4978,8 +5496,108 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="timingVar">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId5">
+        <control shapeId="1033" r:id="rId4" name="setPassAdjustment">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D28" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>119743</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>185057</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>59871</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId4" name="setPassAdjustment"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId6" name="distance">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D24" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId6" name="distance"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId8" name="athletePower">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D21" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId8" name="athletePower"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId10" name="SpikeSkill">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D16" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId10" name="SpikeSkill"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId12" name="timingVar">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
@@ -4998,132 +5616,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="timingVar"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="SpikeSkill">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="SpikeSkill"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="SpikeTimingWindow">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D15" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="SpikeTimingWindow"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId10" name="athletePower">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D26" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId10" name="athletePower"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId12" name="distance">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D22" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId12" name="distance"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId14" name="setPassAdjustment">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D20" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>119743</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>185057</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>59871</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId14" name="setPassAdjustment"/>
+        <control shapeId="1026" r:id="rId12" name="timingVar"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B978A96-8915-417C-99CF-6C7BF5D60B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB5293-0EA3-4548-8A60-C8D3D26CE003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>Player Skill</t>
   </si>
@@ -279,19 +279,97 @@
   </si>
   <si>
     <t>Spike Skill</t>
+  </si>
+  <si>
+    <t>StoV(s_s,w_s)</t>
+  </si>
+  <si>
+    <t>for spike power = 5, spike skill = 5</t>
+  </si>
+  <si>
+    <t>StoV(p_adj,rng_sp)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</t>
+    </r>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Spike()</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>newTarget</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>spikeAnim</t>
+  </si>
+  <si>
+    <t>SetSpikeTargetByType()</t>
+  </si>
+  <si>
+    <t>speed m/s</t>
+  </si>
+  <si>
+    <t>speed mph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +407,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -483,11 +575,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -563,9 +664,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -583,10 +681,22 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +728,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,7 +744,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,37 +911,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52500000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42499999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32499999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22499999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5000000000000022E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4999999999999956E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17499999999999993</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27499999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37499999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,37 +1028,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.5625</c:v>
+                  <c:v>6.9444444444444449E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47250000000000003</c:v>
+                  <c:v>5.8333333333333336E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38250000000000001</c:v>
+                  <c:v>4.7222222222222223E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29249999999999998</c:v>
+                  <c:v>3.6111111111111109E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20249999999999999</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1125</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.250000000000002E-2</c:v>
+                  <c:v>2.7777777777777805E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7499999999999963E-2</c:v>
+                  <c:v>8.3333333333333284E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15749999999999995</c:v>
+                  <c:v>1.9444444444444437E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24749999999999991</c:v>
+                  <c:v>3.0555555555555548E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33749999999999991</c:v>
+                  <c:v>4.1666666666666657E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,37 +1145,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1.388888888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42000000000000004</c:v>
+                  <c:v>1.1666666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>9.4444444444444445E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25999999999999995</c:v>
+                  <c:v>7.2222222222222219E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>2.7777777777777779E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0000000000000018E-2</c:v>
+                  <c:v>5.555555555555561E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.999999999999997E-2</c:v>
+                  <c:v>1.6666666666666657E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13999999999999996</c:v>
+                  <c:v>3.8888888888888875E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21999999999999995</c:v>
+                  <c:v>6.1111111111111097E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29999999999999993</c:v>
+                  <c:v>8.3333333333333315E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,37 +1262,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.4375</c:v>
+                  <c:v>2.0833333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36749999999999999</c:v>
+                  <c:v>1.7500000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29749999999999999</c:v>
+                  <c:v>1.4166666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22749999999999995</c:v>
+                  <c:v>1.0833333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15749999999999997</c:v>
+                  <c:v>7.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7499999999999994E-2</c:v>
+                  <c:v>4.1666666666666675E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7500000000000016E-2</c:v>
+                  <c:v>8.3333333333333425E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2499999999999963E-2</c:v>
+                  <c:v>2.4999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12249999999999994</c:v>
+                  <c:v>5.8333333333333319E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19249999999999992</c:v>
+                  <c:v>9.166666666666665E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2624999999999999</c:v>
+                  <c:v>1.2499999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,37 +1379,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.375</c:v>
+                  <c:v>2.777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.315</c:v>
+                  <c:v>2.3333333333333334E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.255</c:v>
+                  <c:v>1.8888888888888889E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19499999999999998</c:v>
+                  <c:v>1.4444444444444444E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13499999999999998</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>5.5555555555555558E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5000000000000013E-2</c:v>
+                  <c:v>1.1111111111111122E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4999999999999971E-2</c:v>
+                  <c:v>3.3333333333333314E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10499999999999995</c:v>
+                  <c:v>7.777777777777775E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16499999999999995</c:v>
+                  <c:v>1.2222222222222219E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22499999999999992</c:v>
+                  <c:v>1.6666666666666663E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,37 +1496,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.3125</c:v>
+                  <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26250000000000001</c:v>
+                  <c:v>2.9166666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21249999999999999</c:v>
+                  <c:v>2.361111111111111E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16249999999999998</c:v>
+                  <c:v>1.805555555555555E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11249999999999999</c:v>
+                  <c:v>1.2499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2500000000000011E-2</c:v>
+                  <c:v>1.38888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7499999999999978E-2</c:v>
+                  <c:v>4.166666666666664E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7499999999999967E-2</c:v>
+                  <c:v>9.7222222222222172E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13749999999999996</c:v>
+                  <c:v>1.5277777777777772E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18749999999999994</c:v>
+                  <c:v>2.0833333333333325E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,37 +1615,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.24999999999999994</c:v>
+                  <c:v>4.1666666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20999999999999996</c:v>
+                  <c:v>3.500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16999999999999996</c:v>
+                  <c:v>2.8333333333333339E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12999999999999995</c:v>
+                  <c:v>2.1666666666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9999999999999969E-2</c:v>
+                  <c:v>1.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9999999999999989E-2</c:v>
+                  <c:v>8.333333333333335E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0000000000000007E-2</c:v>
+                  <c:v>1.6666666666666685E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9999999999999975E-2</c:v>
+                  <c:v>4.9999999999999984E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9999999999999951E-2</c:v>
+                  <c:v>1.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10999999999999995</c:v>
+                  <c:v>1.833333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14999999999999991</c:v>
+                  <c:v>2.4999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,37 +1734,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.18750000000000003</c:v>
+                  <c:v>4.8611111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15750000000000003</c:v>
+                  <c:v>4.0833333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1275</c:v>
+                  <c:v>3.3055555555555553E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7500000000000003E-2</c:v>
+                  <c:v>2.5277777777777774E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7500000000000004E-2</c:v>
+                  <c:v>1.7499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7500000000000006E-2</c:v>
+                  <c:v>9.7222222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5000000000000075E-3</c:v>
+                  <c:v>1.9444444444444461E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2499999999999989E-2</c:v>
+                  <c:v>5.8333333333333301E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2499999999999991E-2</c:v>
+                  <c:v>1.3611111111111107E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.249999999999999E-2</c:v>
+                  <c:v>2.1388888888888881E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11249999999999999</c:v>
+                  <c:v>2.916666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,37 +1853,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.12499999999999997</c:v>
+                  <c:v>5.5555555555555559E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10499999999999998</c:v>
+                  <c:v>4.6666666666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4999999999999978E-2</c:v>
+                  <c:v>3.7777777777777778E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4999999999999974E-2</c:v>
+                  <c:v>2.8888888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4999999999999984E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4999999999999994E-2</c:v>
+                  <c:v>1.1111111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0000000000000036E-3</c:v>
+                  <c:v>2.2222222222222244E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4999999999999987E-2</c:v>
+                  <c:v>6.6666666666666628E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4999999999999976E-2</c:v>
+                  <c:v>1.555555555555555E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4999999999999973E-2</c:v>
+                  <c:v>2.4444444444444439E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4999999999999956E-2</c:v>
+                  <c:v>3.3333333333333326E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,37 +1972,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.2500000000000056E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2500000000000047E-2</c:v>
+                  <c:v>5.2500000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2500000000000038E-2</c:v>
+                  <c:v>4.2500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2500000000000022E-2</c:v>
+                  <c:v>3.2499999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2500000000000017E-2</c:v>
+                  <c:v>2.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2500000000000011E-2</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5000000000000044E-3</c:v>
+                  <c:v>2.5000000000000022E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5000000000000023E-3</c:v>
+                  <c:v>7.4999999999999963E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7500000000000009E-2</c:v>
+                  <c:v>1.7499999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7500000000000014E-2</c:v>
+                  <c:v>2.7499999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7500000000000019E-2</c:v>
+                  <c:v>3.7499999999999992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,7 +3145,7 @@
           <xdr:col>22</xdr:col>
           <xdr:colOff>185057</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>59870</xdr:rowOff>
+          <xdr:rowOff>59871</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3436,14 +3546,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -4034,7 +4144,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="Q9" s="2">
         <f ca="1">SpikeTime!E24/(SpikeTime!E26*(1-(ABS(SpikeTime!E27)-SpikeTime!E28)))</f>
-        <v>0.19584300085601195</v>
+        <v>0.19482414818159402</v>
       </c>
     </row>
   </sheetData>
@@ -4045,10 +4155,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE61"/>
+  <dimension ref="A1:AE84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4120,7 +4230,7 @@
       <c r="D12">
         <v>62</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <f>D12/100</f>
         <v>0.62</v>
       </c>
@@ -4181,11 +4291,11 @@
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <v>0.1</v>
       </c>
-      <c r="E17" s="34">
-        <v>1</v>
+      <c r="E17" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.4">
@@ -4195,6 +4305,9 @@
       <c r="B18" t="s">
         <v>44</v>
       </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
       <c r="T18" t="s">
         <v>52</v>
       </c>
@@ -4220,7 +4333,7 @@
       </c>
       <c r="E20" s="4">
         <f ca="1">RANDBETWEEN(-E19*100,E19*100)/100</f>
-        <v>0.14000000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.4">
@@ -4247,47 +4360,47 @@
       </c>
       <c r="E22" s="5">
         <f ca="1">MIN(MAX(E21+E20,1),10)</f>
-        <v>7.14</v>
+        <v>7.24</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="35">
+      <c r="V22" s="34">
         <v>1</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22" s="34">
         <f>V22+1</f>
         <v>2</v>
       </c>
-      <c r="X22" s="35">
+      <c r="X22" s="34">
         <f t="shared" ref="X22:AE22" si="0">W22+1</f>
         <v>3</v>
       </c>
-      <c r="Y22" s="35">
+      <c r="Y22" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z22" s="35">
+      <c r="Z22" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AA22" s="35">
+      <c r="AA22" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB22" s="35">
+      <c r="AB22" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AC22" s="35">
+      <c r="AC22" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AD22" s="35">
+      <c r="AD22" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="AE22" s="35">
+      <c r="AE22" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4301,50 +4414,50 @@
       </c>
       <c r="E23" s="2">
         <f ca="1">E24/(E26*(1-(E27-E28)))</f>
-        <v>0.19584300085601195</v>
+        <v>0.19482414818159402</v>
       </c>
       <c r="U23" s="6">
         <v>1</v>
       </c>
-      <c r="V23" s="36">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.89</v>
-      </c>
-      <c r="W23" s="37">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.885000000000002</v>
-      </c>
-      <c r="X23" s="37">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.88</v>
-      </c>
-      <c r="Y23" s="37">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.875</v>
-      </c>
-      <c r="Z23" s="37">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.87</v>
-      </c>
-      <c r="AA23" s="37">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.864999999999998</v>
-      </c>
-      <c r="AB23" s="37">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.86</v>
-      </c>
-      <c r="AC23" s="37">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.855</v>
-      </c>
-      <c r="AD23" s="37">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.85</v>
-      </c>
-      <c r="AE23" s="37">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.844999999999999</v>
+      <c r="V23" s="35">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.989000000000001</v>
+      </c>
+      <c r="W23" s="36">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.988500000000002</v>
+      </c>
+      <c r="X23" s="36">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.988</v>
+      </c>
+      <c r="Y23" s="36">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.987500000000001</v>
+      </c>
+      <c r="Z23" s="36">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.987000000000002</v>
+      </c>
+      <c r="AA23" s="36">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.986500000000003</v>
+      </c>
+      <c r="AB23" s="36">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.986000000000001</v>
+      </c>
+      <c r="AC23" s="36">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.985500000000002</v>
+      </c>
+      <c r="AD23" s="36">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.985000000000003</v>
+      </c>
+      <c r="AE23" s="36">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.984500000000001</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.4">
@@ -4365,45 +4478,45 @@
         <f>U23+1</f>
         <v>2</v>
       </c>
-      <c r="V24" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.901</v>
-      </c>
-      <c r="W24" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.8965</v>
-      </c>
-      <c r="X24" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.892000000000003</v>
-      </c>
-      <c r="Y24" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.887500000000003</v>
-      </c>
-      <c r="Z24" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.883000000000003</v>
-      </c>
-      <c r="AA24" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.878500000000003</v>
-      </c>
-      <c r="AB24" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.874000000000002</v>
-      </c>
-      <c r="AC24" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.869500000000002</v>
-      </c>
-      <c r="AD24" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.865000000000002</v>
-      </c>
-      <c r="AE24" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.860500000000002</v>
+      <c r="V24" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.990222222222222</v>
+      </c>
+      <c r="W24" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.989777777777778</v>
+      </c>
+      <c r="X24" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.989333333333335</v>
+      </c>
+      <c r="Y24" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.988888888888887</v>
+      </c>
+      <c r="Z24" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.988444444444443</v>
+      </c>
+      <c r="AA24" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.988</v>
+      </c>
+      <c r="AB24" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.987555555555556</v>
+      </c>
+      <c r="AC24" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.987111111111112</v>
+      </c>
+      <c r="AD24" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.986666666666665</v>
+      </c>
+      <c r="AE24" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.986222222222221</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.4">
@@ -4423,98 +4536,98 @@
         <f t="shared" ref="U25:U32" si="1">U24+1</f>
         <v>3</v>
       </c>
-      <c r="V25" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.911999999999999</v>
-      </c>
-      <c r="W25" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.908000000000001</v>
-      </c>
-      <c r="X25" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.904</v>
-      </c>
-      <c r="Y25" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.9</v>
-      </c>
-      <c r="Z25" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.896000000000001</v>
-      </c>
-      <c r="AA25" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.891999999999999</v>
-      </c>
-      <c r="AB25" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.887999999999998</v>
-      </c>
-      <c r="AC25" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.884</v>
-      </c>
-      <c r="AD25" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.88</v>
-      </c>
-      <c r="AE25" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.876000000000001</v>
+      <c r="V25" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.991444444444443</v>
+      </c>
+      <c r="W25" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.991055555555555</v>
+      </c>
+      <c r="X25" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.990666666666666</v>
+      </c>
+      <c r="Y25" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.990277777777777</v>
+      </c>
+      <c r="Z25" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.989888888888888</v>
+      </c>
+      <c r="AA25" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.9895</v>
+      </c>
+      <c r="AB25" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.989111111111111</v>
+      </c>
+      <c r="AC25" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.988722222222222</v>
+      </c>
+      <c r="AD25" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.988333333333333</v>
+      </c>
+      <c r="AE25" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.987944444444445</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="A26" s="42" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4">
         <f ca="1">(E22-'Skill to Value'!C3)*(E25-D25)/('Skill to Value'!D3-'Skill to Value'!C3)+D25</f>
-        <v>28.14</v>
+        <v>28.240000000000002</v>
       </c>
       <c r="U26" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V26" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.923000000000002</v>
-      </c>
-      <c r="W26" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.919500000000003</v>
-      </c>
-      <c r="X26" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.916</v>
-      </c>
-      <c r="Y26" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.912500000000001</v>
-      </c>
-      <c r="Z26" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.909000000000002</v>
-      </c>
-      <c r="AA26" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.9055</v>
-      </c>
-      <c r="AB26" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.902000000000001</v>
-      </c>
-      <c r="AC26" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.898500000000002</v>
-      </c>
-      <c r="AD26" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.895000000000003</v>
-      </c>
-      <c r="AE26" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.891500000000001</v>
+      <c r="V26" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.992666666666668</v>
+      </c>
+      <c r="W26" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.992333333333335</v>
+      </c>
+      <c r="X26" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.992000000000001</v>
+      </c>
+      <c r="Y26" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.991666666666667</v>
+      </c>
+      <c r="Z26" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.991333333333333</v>
+      </c>
+      <c r="AA26" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.991</v>
+      </c>
+      <c r="AB26" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.990666666666669</v>
+      </c>
+      <c r="AC26" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.990333333333336</v>
+      </c>
+      <c r="AD26" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.990000000000002</v>
+      </c>
+      <c r="AE26" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.989666666666668</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.4">
@@ -4526,51 +4639,51 @@
       </c>
       <c r="E27" s="4">
         <f>E14*((E16-'Skill to Value'!C3)*(D17-E17)/('Skill to Value'!D3-'Skill to Value'!C3)+E17)</f>
-        <v>2.0000000000000013E-3</v>
+        <v>3.333333333333337E-4</v>
       </c>
       <c r="U27" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V27" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.934000000000001</v>
-      </c>
-      <c r="W27" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.931000000000001</v>
-      </c>
-      <c r="X27" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.928000000000001</v>
-      </c>
-      <c r="Y27" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.925000000000001</v>
-      </c>
-      <c r="Z27" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.922000000000001</v>
-      </c>
-      <c r="AA27" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.919</v>
-      </c>
-      <c r="AB27" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.916</v>
-      </c>
-      <c r="AC27" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.913</v>
-      </c>
-      <c r="AD27" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.91</v>
-      </c>
-      <c r="AE27" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.907</v>
+      <c r="V27" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.99388888888889</v>
+      </c>
+      <c r="W27" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.993611111111111</v>
+      </c>
+      <c r="X27" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.993333333333332</v>
+      </c>
+      <c r="Y27" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.993055555555554</v>
+      </c>
+      <c r="Z27" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.992777777777775</v>
+      </c>
+      <c r="AA27" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.9925</v>
+      </c>
+      <c r="AB27" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.992222222222221</v>
+      </c>
+      <c r="AC27" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.991944444444442</v>
+      </c>
+      <c r="AD27" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.991666666666667</v>
+      </c>
+      <c r="AE27" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.991388888888888</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.4">
@@ -4594,98 +4707,98 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="V28" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.945</v>
-      </c>
-      <c r="W28" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.942500000000003</v>
-      </c>
-      <c r="X28" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.94</v>
-      </c>
-      <c r="Y28" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.9375</v>
-      </c>
-      <c r="Z28" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.935000000000002</v>
-      </c>
-      <c r="AA28" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.932500000000001</v>
-      </c>
-      <c r="AB28" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.93</v>
-      </c>
-      <c r="AC28" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.927500000000002</v>
-      </c>
-      <c r="AD28" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.925000000000001</v>
-      </c>
-      <c r="AE28" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.922500000000003</v>
+      <c r="V28" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.995111111111111</v>
+      </c>
+      <c r="W28" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.994888888888887</v>
+      </c>
+      <c r="X28" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.994666666666667</v>
+      </c>
+      <c r="Y28" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.994444444444444</v>
+      </c>
+      <c r="Z28" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.994222222222223</v>
+      </c>
+      <c r="AA28" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.994</v>
+      </c>
+      <c r="AB28" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.993777777777776</v>
+      </c>
+      <c r="AC28" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.993555555555556</v>
+      </c>
+      <c r="AD28" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.993333333333332</v>
+      </c>
+      <c r="AE28" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.993111111111112</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+      <c r="A29" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="4">
         <f>(1-(E27-E28))</f>
-        <v>0.998</v>
+        <v>0.9996666666666667</v>
       </c>
       <c r="U29" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="V29" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.956</v>
-      </c>
-      <c r="W29" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.954000000000001</v>
-      </c>
-      <c r="X29" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.951999999999998</v>
-      </c>
-      <c r="Y29" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.95</v>
-      </c>
-      <c r="Z29" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.948</v>
-      </c>
-      <c r="AA29" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.946000000000002</v>
-      </c>
-      <c r="AB29" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.943999999999999</v>
-      </c>
-      <c r="AC29" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.942</v>
-      </c>
-      <c r="AD29" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.94</v>
-      </c>
-      <c r="AE29" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.937999999999999</v>
+      <c r="V29" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.996333333333332</v>
+      </c>
+      <c r="W29" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.996166666666667</v>
+      </c>
+      <c r="X29" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.996000000000002</v>
+      </c>
+      <c r="Y29" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.995833333333334</v>
+      </c>
+      <c r="Z29" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.995666666666668</v>
+      </c>
+      <c r="AA29" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.9955</v>
+      </c>
+      <c r="AB29" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.995333333333335</v>
+      </c>
+      <c r="AC29" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.995166666666666</v>
+      </c>
+      <c r="AD29" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.995000000000001</v>
+      </c>
+      <c r="AE29" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.994833333333332</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.4">
@@ -4694,51 +4807,51 @@
       </c>
       <c r="E30" s="25">
         <f ca="1">E26*E29</f>
-        <v>28.08372</v>
+        <v>28.230586666666671</v>
       </c>
       <c r="U30" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="V30" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.966999999999999</v>
-      </c>
-      <c r="W30" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.965499999999999</v>
-      </c>
-      <c r="X30" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.963999999999999</v>
-      </c>
-      <c r="Y30" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.962499999999999</v>
-      </c>
-      <c r="Z30" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.960999999999999</v>
-      </c>
-      <c r="AA30" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.959499999999998</v>
-      </c>
-      <c r="AB30" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.957999999999998</v>
-      </c>
-      <c r="AC30" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.956499999999998</v>
-      </c>
-      <c r="AD30" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.954999999999998</v>
-      </c>
-      <c r="AE30" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.953499999999998</v>
+      <c r="V30" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.997555555555557</v>
+      </c>
+      <c r="W30" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.997444444444447</v>
+      </c>
+      <c r="X30" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.997333333333334</v>
+      </c>
+      <c r="Y30" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.997222222222224</v>
+      </c>
+      <c r="Z30" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.997111111111114</v>
+      </c>
+      <c r="AA30" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.997</v>
+      </c>
+      <c r="AB30" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.99688888888889</v>
+      </c>
+      <c r="AC30" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.99677777777778</v>
+      </c>
+      <c r="AD30" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.99666666666667</v>
+      </c>
+      <c r="AE30" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.996555555555556</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.4">
@@ -4746,45 +4859,45 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="V31" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.978000000000002</v>
-      </c>
-      <c r="W31" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.977</v>
-      </c>
-      <c r="X31" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.975999999999999</v>
-      </c>
-      <c r="Y31" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.975000000000001</v>
-      </c>
-      <c r="Z31" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.974</v>
-      </c>
-      <c r="AA31" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.972999999999999</v>
-      </c>
-      <c r="AB31" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.972000000000001</v>
-      </c>
-      <c r="AC31" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.971</v>
-      </c>
-      <c r="AD31" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.97</v>
-      </c>
-      <c r="AE31" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.969000000000001</v>
+      <c r="V31" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>21.998777777777779</v>
+      </c>
+      <c r="W31" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22.99872222222222</v>
+      </c>
+      <c r="X31" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23.998666666666665</v>
+      </c>
+      <c r="Y31" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24.99861111111111</v>
+      </c>
+      <c r="Z31" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25.998555555555555</v>
+      </c>
+      <c r="AA31" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26.9985</v>
+      </c>
+      <c r="AB31" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27.998444444444445</v>
+      </c>
+      <c r="AC31" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28.998388888888886</v>
+      </c>
+      <c r="AD31" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29.998333333333331</v>
+      </c>
+      <c r="AE31" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30.998277777777776</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.4">
@@ -4793,7 +4906,7 @@
       </c>
       <c r="E32" s="25">
         <f ca="1">E24/E23</f>
-        <v>28.08372</v>
+        <v>28.230586666666671</v>
       </c>
       <c r="F32" t="s">
         <v>71</v>
@@ -4802,62 +4915,89 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="V32" s="38">
-        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>21.988999999999997</v>
-      </c>
-      <c r="W32" s="39">
-        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>22.988499999999998</v>
-      </c>
-      <c r="X32" s="39">
-        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>23.988</v>
-      </c>
-      <c r="Y32" s="39">
-        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>24.987499999999997</v>
-      </c>
-      <c r="Z32" s="39">
-        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>25.986999999999998</v>
-      </c>
-      <c r="AA32" s="39">
-        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>26.986499999999999</v>
-      </c>
-      <c r="AB32" s="39">
-        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>27.985999999999997</v>
-      </c>
-      <c r="AC32" s="39">
-        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>28.985499999999998</v>
-      </c>
-      <c r="AD32" s="39">
-        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>29.984999999999999</v>
-      </c>
-      <c r="AE32" s="39">
-        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)-$E$28))</f>
-        <v>30.984499999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="V32" s="37">
+        <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>22</v>
+      </c>
+      <c r="W32" s="38">
+        <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>23</v>
+      </c>
+      <c r="X32" s="38">
+        <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>24</v>
+      </c>
+      <c r="Y32" s="38">
+        <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>25</v>
+      </c>
+      <c r="Z32" s="38">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>26</v>
+      </c>
+      <c r="AA32" s="38">
+        <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>27</v>
+      </c>
+      <c r="AB32" s="38">
+        <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>28</v>
+      </c>
+      <c r="AC32" s="38">
+        <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>29</v>
+      </c>
+      <c r="AD32" s="38">
+        <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>30</v>
+      </c>
+      <c r="AE32" s="38">
+        <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U32-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="25">
         <f ca="1">E32*2.23694</f>
-        <v>62.821596616800001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+        <v>63.150128538133345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="U34" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y34" s="25">
+        <f>Z27</f>
+        <v>25.992777777777775</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="U35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y35" s="25">
+        <f>(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)</f>
+        <v>5.5555555555555559E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="U36" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y36" s="25">
+        <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
@@ -4904,510 +5044,513 @@
         <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <v>1</v>
       </c>
       <c r="B39" s="10">
         <f>ABS(B$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="C39" s="8">
         <f>ABS(C$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.52500000000000002</v>
+        <v>0</v>
       </c>
       <c r="D39" s="16">
         <f>ABS(D$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="E39" s="17">
         <f>ABS(E$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.32499999999999996</v>
+        <v>0</v>
       </c>
       <c r="F39" s="17">
         <f>ABS(F$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.22499999999999998</v>
+        <v>0</v>
       </c>
       <c r="G39" s="17">
         <f>ABS(G$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H39" s="17">
         <f>ABS(H$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.5000000000000022E-2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="17">
         <f>ABS(I$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>7.4999999999999956E-2</v>
+        <v>0</v>
       </c>
       <c r="J39" s="18">
         <f>ABS(J$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.17499999999999993</v>
+        <v>0</v>
       </c>
       <c r="K39" s="8">
         <f>ABS(K$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.27499999999999991</v>
+        <v>0</v>
       </c>
       <c r="L39" s="8">
         <f>ABS(L$38-$E$13)*(($A39-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.37499999999999989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <f>A39+1</f>
         <v>2</v>
       </c>
       <c r="B40" s="11">
         <f>ABS(B$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.5625</v>
+        <v>6.9444444444444449E-3</v>
       </c>
       <c r="C40" s="9">
         <f>ABS(C$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.47250000000000003</v>
+        <v>5.8333333333333336E-3</v>
       </c>
       <c r="D40" s="19">
         <f>ABS(D$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.38250000000000001</v>
+        <v>4.7222222222222223E-3</v>
       </c>
       <c r="E40" s="20">
         <f>ABS(E$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.29249999999999998</v>
+        <v>3.6111111111111109E-3</v>
       </c>
       <c r="F40" s="20">
         <f>ABS(F$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.20249999999999999</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G40" s="20">
         <f>ABS(G$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.1125</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="H40" s="20">
         <f>ABS(H$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.250000000000002E-2</v>
+        <v>2.7777777777777805E-4</v>
       </c>
       <c r="I40" s="20">
         <f>ABS(I$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>6.7499999999999963E-2</v>
+        <v>8.3333333333333284E-4</v>
       </c>
       <c r="J40" s="21">
         <f>ABS(J$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.15749999999999995</v>
+        <v>1.9444444444444437E-3</v>
       </c>
       <c r="K40" s="9">
         <f>ABS(K$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.24749999999999991</v>
+        <v>3.0555555555555548E-3</v>
       </c>
       <c r="L40" s="9">
         <f>ABS(L$38-$E$13)*(($A40-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.33749999999999991</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4.1666666666666657E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <f t="shared" ref="A41:A48" si="3">A40+1</f>
         <v>3</v>
       </c>
       <c r="B41" s="11">
         <f>ABS(B$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.5</v>
+        <v>1.388888888888889E-2</v>
       </c>
       <c r="C41" s="9">
         <f>ABS(C$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.42000000000000004</v>
+        <v>1.1666666666666667E-2</v>
       </c>
       <c r="D41" s="19">
         <f>ABS(D$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.34</v>
+        <v>9.4444444444444445E-3</v>
       </c>
       <c r="E41" s="20">
         <f>ABS(E$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.25999999999999995</v>
+        <v>7.2222222222222219E-3</v>
       </c>
       <c r="F41" s="20">
         <f>ABS(F$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.18</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G41" s="20">
         <f>ABS(G$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.1</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="H41" s="20">
         <f>ABS(H$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.0000000000000018E-2</v>
+        <v>5.555555555555561E-4</v>
       </c>
       <c r="I41" s="20">
         <f>ABS(I$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>5.999999999999997E-2</v>
+        <v>1.6666666666666657E-3</v>
       </c>
       <c r="J41" s="21">
         <f>ABS(J$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.13999999999999996</v>
+        <v>3.8888888888888875E-3</v>
       </c>
       <c r="K41" s="9">
         <f>ABS(K$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.21999999999999995</v>
+        <v>6.1111111111111097E-3</v>
       </c>
       <c r="L41" s="9">
         <f>ABS(L$38-$E$13)*(($A41-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.29999999999999993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8.3333333333333315E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B42" s="11">
         <f>ABS(B$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.4375</v>
+        <v>2.0833333333333336E-2</v>
       </c>
       <c r="C42" s="9">
         <f>ABS(C$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.36749999999999999</v>
+        <v>1.7500000000000005E-2</v>
       </c>
       <c r="D42" s="19">
         <f>ABS(D$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.29749999999999999</v>
+        <v>1.4166666666666669E-2</v>
       </c>
       <c r="E42" s="20">
         <f>ABS(E$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.22749999999999995</v>
+        <v>1.0833333333333334E-2</v>
       </c>
       <c r="F42" s="20">
         <f>ABS(F$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.15749999999999997</v>
+        <v>7.5000000000000006E-3</v>
       </c>
       <c r="G42" s="20">
         <f>ABS(G$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>8.7499999999999994E-2</v>
+        <v>4.1666666666666675E-3</v>
       </c>
       <c r="H42" s="20">
         <f>ABS(H$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>1.7500000000000016E-2</v>
+        <v>8.3333333333333425E-4</v>
       </c>
       <c r="I42" s="20">
         <f>ABS(I$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>5.2499999999999963E-2</v>
+        <v>2.4999999999999992E-3</v>
       </c>
       <c r="J42" s="21">
         <f>ABS(J$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.12249999999999994</v>
+        <v>5.8333333333333319E-3</v>
       </c>
       <c r="K42" s="9">
         <f>ABS(K$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.19249999999999992</v>
+        <v>9.166666666666665E-3</v>
       </c>
       <c r="L42" s="9">
         <f>ABS(L$38-$E$13)*(($A42-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.2624999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B43" s="11">
         <f>ABS(B$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.375</v>
+        <v>2.777777777777778E-2</v>
       </c>
       <c r="C43" s="9">
         <f>ABS(C$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.315</v>
+        <v>2.3333333333333334E-2</v>
       </c>
       <c r="D43" s="19">
         <f>ABS(D$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.255</v>
+        <v>1.8888888888888889E-2</v>
       </c>
       <c r="E43" s="20">
         <f>ABS(E$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.19499999999999998</v>
+        <v>1.4444444444444444E-2</v>
       </c>
       <c r="F43" s="20">
         <f>ABS(F$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.13499999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="G43" s="20">
         <f>ABS(G$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>7.4999999999999997E-2</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="H43" s="20">
         <f>ABS(H$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>1.5000000000000013E-2</v>
+        <v>1.1111111111111122E-3</v>
       </c>
       <c r="I43" s="20">
         <f>ABS(I$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>4.4999999999999971E-2</v>
+        <v>3.3333333333333314E-3</v>
       </c>
       <c r="J43" s="21">
         <f>ABS(J$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.10499999999999995</v>
+        <v>7.777777777777775E-3</v>
       </c>
       <c r="K43" s="9">
         <f>ABS(K$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.16499999999999995</v>
+        <v>1.2222222222222219E-2</v>
       </c>
       <c r="L43" s="9">
         <f>ABS(L$38-$E$13)*(($A43-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.22499999999999992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.6666666666666663E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B44" s="11">
         <f>ABS(B$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.3125</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C44" s="9">
         <f>ABS(C$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.26250000000000001</v>
+        <v>2.9166666666666667E-2</v>
       </c>
       <c r="D44" s="19">
         <f>ABS(D$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.21249999999999999</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="E44" s="20">
         <f>ABS(E$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.16249999999999998</v>
+        <v>1.805555555555555E-2</v>
       </c>
       <c r="F44" s="20">
         <f>ABS(F$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.11249999999999999</v>
+        <v>1.2499999999999997E-2</v>
       </c>
       <c r="G44" s="20">
         <f>ABS(G$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>6.25E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="H44" s="20">
         <f>ABS(H$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>1.2500000000000011E-2</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="I44" s="20">
         <f>ABS(I$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>3.7499999999999978E-2</v>
+        <v>4.166666666666664E-3</v>
       </c>
       <c r="J44" s="21">
         <f>ABS(J$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>8.7499999999999967E-2</v>
+        <v>9.7222222222222172E-3</v>
       </c>
       <c r="K44" s="9">
         <f>ABS(K$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.13749999999999996</v>
+        <v>1.5277777777777772E-2</v>
       </c>
       <c r="L44" s="9">
         <f>ABS(L$38-$E$13)*(($A44-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.18749999999999994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.0833333333333325E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B45" s="11">
         <f>ABS(B$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.24999999999999994</v>
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="C45" s="9">
         <f>ABS(C$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.20999999999999996</v>
+        <v>3.500000000000001E-2</v>
       </c>
       <c r="D45" s="19">
         <f>ABS(D$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.16999999999999996</v>
+        <v>2.8333333333333339E-2</v>
       </c>
       <c r="E45" s="20">
         <f>ABS(E$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.12999999999999995</v>
+        <v>2.1666666666666667E-2</v>
       </c>
       <c r="F45" s="20">
         <f>ABS(F$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>8.9999999999999969E-2</v>
+        <v>1.5000000000000001E-2</v>
       </c>
       <c r="G45" s="20">
         <f>ABS(G$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>4.9999999999999989E-2</v>
+        <v>8.333333333333335E-3</v>
       </c>
       <c r="H45" s="20">
         <f>ABS(H$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>1.0000000000000007E-2</v>
+        <v>1.6666666666666685E-3</v>
       </c>
       <c r="I45" s="20">
         <f>ABS(I$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.9999999999999975E-2</v>
+        <v>4.9999999999999984E-3</v>
       </c>
       <c r="J45" s="21">
         <f>ABS(J$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>6.9999999999999951E-2</v>
+        <v>1.1666666666666664E-2</v>
       </c>
       <c r="K45" s="9">
         <f>ABS(K$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.10999999999999995</v>
+        <v>1.833333333333333E-2</v>
       </c>
       <c r="L45" s="9">
         <f>ABS(L$38-$E$13)*(($A45-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B46" s="11">
         <f>ABS(B$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.18750000000000003</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="C46" s="9">
         <f>ABS(C$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.15750000000000003</v>
+        <v>4.0833333333333333E-2</v>
       </c>
       <c r="D46" s="19">
         <f>ABS(D$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.1275</v>
+        <v>3.3055555555555553E-2</v>
       </c>
       <c r="E46" s="20">
         <f>ABS(E$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>9.7500000000000003E-2</v>
+        <v>2.5277777777777774E-2</v>
       </c>
       <c r="F46" s="20">
         <f>ABS(F$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>6.7500000000000004E-2</v>
+        <v>1.7499999999999998E-2</v>
       </c>
       <c r="G46" s="20">
         <f>ABS(G$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>3.7500000000000006E-2</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="H46" s="20">
         <f>ABS(H$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>7.5000000000000075E-3</v>
+        <v>1.9444444444444461E-3</v>
       </c>
       <c r="I46" s="20">
         <f>ABS(I$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.2499999999999989E-2</v>
+        <v>5.8333333333333301E-3</v>
       </c>
       <c r="J46" s="21">
         <f>ABS(J$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>5.2499999999999991E-2</v>
+        <v>1.3611111111111107E-2</v>
       </c>
       <c r="K46" s="9">
         <f>ABS(K$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>8.249999999999999E-2</v>
+        <v>2.1388888888888881E-2</v>
       </c>
       <c r="L46" s="9">
         <f>ABS(L$38-$E$13)*(($A46-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.11249999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.916666666666666E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B47" s="11">
         <f>ABS(B$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.12499999999999997</v>
+        <v>5.5555555555555559E-2</v>
       </c>
       <c r="C47" s="9">
         <f>ABS(C$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>0.10499999999999998</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="D47" s="19">
         <f>ABS(D$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>8.4999999999999978E-2</v>
+        <v>3.7777777777777778E-2</v>
       </c>
       <c r="E47" s="20">
         <f>ABS(E$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>6.4999999999999974E-2</v>
+        <v>2.8888888888888888E-2</v>
       </c>
       <c r="F47" s="20">
         <f>ABS(F$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>4.4999999999999984E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G47" s="20">
         <f>ABS(G$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.4999999999999994E-2</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="H47" s="20">
         <f>ABS(H$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>5.0000000000000036E-3</v>
+        <v>2.2222222222222244E-3</v>
       </c>
       <c r="I47" s="20">
         <f>ABS(I$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>1.4999999999999987E-2</v>
+        <v>6.6666666666666628E-3</v>
       </c>
       <c r="J47" s="21">
         <f>ABS(J$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>3.4999999999999976E-2</v>
+        <v>1.555555555555555E-2</v>
       </c>
       <c r="K47" s="9">
         <f>ABS(K$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>5.4999999999999973E-2</v>
+        <v>2.4444444444444439E-2</v>
       </c>
       <c r="L47" s="9">
         <f>ABS(L$38-$E$13)*(($A47-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>7.4999999999999956E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.3333333333333326E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="20.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B48" s="11">
         <f>ABS(B$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>6.2500000000000056E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C48" s="9">
         <f>ABS(C$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>5.2500000000000047E-2</v>
+        <v>5.2500000000000005E-2</v>
       </c>
       <c r="D48" s="22">
         <f>ABS(D$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>4.2500000000000038E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="E48" s="23">
         <f>ABS(E$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>3.2500000000000022E-2</v>
+        <v>3.2499999999999994E-2</v>
       </c>
       <c r="F48" s="23">
         <f>ABS(F$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.2500000000000017E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G48" s="23">
         <f>ABS(G$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>1.2500000000000011E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H48" s="23">
         <f>ABS(H$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.5000000000000044E-3</v>
+        <v>2.5000000000000022E-3</v>
       </c>
       <c r="I48" s="23">
         <f>ABS(I$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>7.5000000000000023E-3</v>
+        <v>7.4999999999999963E-3</v>
       </c>
       <c r="J48" s="24">
         <f>ABS(J$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>1.7500000000000009E-2</v>
+        <v>1.7499999999999995E-2</v>
       </c>
       <c r="K48" s="9">
         <f>ABS(K$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>2.7500000000000014E-2</v>
+        <v>2.7499999999999993E-2</v>
       </c>
       <c r="L48" s="9">
         <f>ABS(L$38-$E$13)*(($A48-'Skill to Value'!$C$3)*($D$17-$E$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$E$17)</f>
-        <v>3.7500000000000019E-2</v>
+        <v>3.7499999999999992E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="L49" s="31" t="str">
+      <c r="L49" s="30" t="str">
         <f>"Var: "&amp;TEXT(_xlfn.VAR.P(B39:L48),"0.00000")</f>
-        <v>Var: 0.01931</v>
+        <v>Var: 0.00020</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
@@ -5440,7 +5583,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <f>C53/(C$50-B$50)</f>
         <v>0.625</v>
       </c>
@@ -5469,7 +5612,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5481,6 +5624,187 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="46">
+        <v>0.43637880000000001</v>
+      </c>
+      <c r="C67" s="46"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68">
+        <v>0.18862119999999999</v>
+      </c>
+      <c r="C68">
+        <f>E13-B67</f>
+        <v>0.18862119999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69">
+        <v>3.3333340000000003E-2</v>
+      </c>
+      <c r="C69">
+        <f>((B65-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70">
+        <v>1.886212</v>
+      </c>
+      <c r="C70">
+        <f>B68*E18</f>
+        <v>1.886212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="45"/>
+      <c r="B76" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>8.6725379999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>-0.59661379999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>27.403390000000002</v>
+      </c>
+      <c r="C79" s="49">
+        <f>(MIN(MAX(B74+B78,1),10)-'Skill to Value'!C3)*(E25-D25)/('Skill to Value'!D3-'Skill to Value'!C3)+D25</f>
+        <v>27.4033862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>7.2634489999999999E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <v>0.31879239999999998</v>
+      </c>
+      <c r="C82">
+        <f>B77/(C79*(1-(B80-B81)))</f>
+        <v>0.31879240632689365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="C83" s="4">
+        <f>B77/C82</f>
+        <v>27.204343101908997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>60.85</v>
+      </c>
+      <c r="C84" s="4">
+        <f>C83*2.23694</f>
+        <v>60.854483258384313</v>
       </c>
     </row>
   </sheetData>
@@ -5496,44 +5820,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId4" name="setPassAdjustment">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D28" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>119743</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>185057</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>59871</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId4" name="setPassAdjustment"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId6" name="distance">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D24" r:id="rId7">
+        <control shapeId="1026" r:id="rId4" name="timingVar">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
@@ -5541,7 +5840,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId6" name="distance"/>
+        <control shapeId="1026" r:id="rId4" name="timingVar"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="SpikeSkill">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D16" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="SpikeSkill"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5571,19 +5895,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId10" name="SpikeSkill">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D16" r:id="rId11">
+        <control shapeId="1030" r:id="rId10" name="distance">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D24" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
@@ -5591,32 +5915,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId10" name="SpikeSkill"/>
+        <control shapeId="1030" r:id="rId10" name="distance"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId12" name="timingVar">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId13">
+        <control shapeId="1033" r:id="rId12" name="setPassAdjustment">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D28" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
+                <xdr:colOff>119743</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>185057</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>59871</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId12" name="timingVar"/>
+        <control shapeId="1033" r:id="rId12" name="setPassAdjustment"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB5293-0EA3-4548-8A60-C8D3D26CE003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20255AB7-C714-42E8-AEA3-9643A0A9867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
   <si>
     <t>Player Skill</t>
   </si>
@@ -356,6 +356,33 @@
   </si>
   <si>
     <t>speed mph</t>
+  </si>
+  <si>
+    <t>OMG Duh</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>spikeTrigger</t>
+  </si>
+  <si>
+    <t>Time in Animation</t>
+  </si>
+  <si>
+    <t>OnJumpEvent</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>OnJumpPeakEvent</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>so is this the range?</t>
   </si>
 </sst>
 </file>
@@ -588,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,18 +712,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +750,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,7 +766,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3546,14 +3568,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -4144,7 +4166,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="Q9" s="2">
         <f ca="1">SpikeTime!E24/(SpikeTime!E26*(1-(ABS(SpikeTime!E27)-SpikeTime!E28)))</f>
-        <v>0.19482414818159402</v>
+        <v>0.19977610547016036</v>
       </c>
     </row>
   </sheetData>
@@ -4155,10 +4177,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE84"/>
+  <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4333,7 +4355,7 @@
       </c>
       <c r="E20" s="4">
         <f ca="1">RANDBETWEEN(-E19*100,E19*100)/100</f>
-        <v>0.24</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.4">
@@ -4360,7 +4382,7 @@
       </c>
       <c r="E22" s="5">
         <f ca="1">MIN(MAX(E21+E20,1),10)</f>
-        <v>7.24</v>
+        <v>6.54</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>79</v>
@@ -4414,7 +4436,7 @@
       </c>
       <c r="E23" s="2">
         <f ca="1">E24/(E26*(1-(E27-E28)))</f>
-        <v>0.19482414818159402</v>
+        <v>0.19977610547016036</v>
       </c>
       <c r="U23" s="6">
         <v>1</v>
@@ -4578,12 +4600,12 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="41" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="4">
         <f ca="1">(E22-'Skill to Value'!C3)*(E25-D25)/('Skill to Value'!D3-'Skill to Value'!C3)+D25</f>
-        <v>28.240000000000002</v>
+        <v>27.54</v>
       </c>
       <c r="U26" s="6">
         <f t="shared" si="1"/>
@@ -4749,7 +4771,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="40" t="s">
         <v>77</v>
       </c>
       <c r="E29" s="4">
@@ -4807,7 +4829,7 @@
       </c>
       <c r="E30" s="25">
         <f ca="1">E26*E29</f>
-        <v>28.230586666666671</v>
+        <v>27.530819999999999</v>
       </c>
       <c r="U30" s="6">
         <f t="shared" si="1"/>
@@ -4906,7 +4928,7 @@
       </c>
       <c r="E32" s="25">
         <f ca="1">E24/E23</f>
-        <v>28.230586666666671</v>
+        <v>27.530819999999999</v>
       </c>
       <c r="F32" t="s">
         <v>71</v>
@@ -4962,7 +4984,7 @@
       </c>
       <c r="E33" s="25">
         <f ca="1">E32*2.23694</f>
-        <v>63.150128538133345</v>
+        <v>61.584792490799998</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.4">
@@ -5632,7 +5654,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="43" t="s">
+      <c r="A65" t="s">
         <v>20</v>
       </c>
       <c r="B65">
@@ -5640,27 +5662,26 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="42" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" s="47" t="s">
+      <c r="A67" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67">
         <v>0.43637880000000001</v>
       </c>
-      <c r="C67" s="46"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" s="43" t="s">
+      <c r="A68" t="s">
         <v>38</v>
       </c>
       <c r="B68">
@@ -5672,7 +5693,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" s="43" t="s">
+      <c r="A69" t="s">
         <v>86</v>
       </c>
       <c r="B69">
@@ -5684,7 +5705,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" s="43" t="s">
+      <c r="A70" t="s">
         <v>87</v>
       </c>
       <c r="B70">
@@ -5696,12 +5717,12 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" s="43" t="s">
+      <c r="A71" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" s="43" t="s">
+      <c r="A72" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5719,16 +5740,16 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="42"/>
+      <c r="B76" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="42" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" s="48" t="s">
+      <c r="A77" t="s">
         <v>12</v>
       </c>
       <c r="B77">
@@ -5736,7 +5757,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" s="48" t="s">
+      <c r="A78" t="s">
         <v>13</v>
       </c>
       <c r="B78">
@@ -5744,19 +5765,19 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" s="48" t="s">
+      <c r="A79" t="s">
         <v>14</v>
       </c>
       <c r="B79">
         <v>27.403390000000002</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="43">
         <f>(MIN(MAX(B74+B78,1),10)-'Skill to Value'!C3)*(E25-D25)/('Skill to Value'!D3-'Skill to Value'!C3)+D25</f>
         <v>27.4033862</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" s="48" t="s">
+      <c r="A80" t="s">
         <v>15</v>
       </c>
       <c r="B80">
@@ -5764,7 +5785,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" s="48" t="s">
+      <c r="A81" t="s">
         <v>16</v>
       </c>
       <c r="B81">
@@ -5772,7 +5793,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" s="48" t="s">
+      <c r="A82" t="s">
         <v>17</v>
       </c>
       <c r="B82">
@@ -5784,7 +5805,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" s="48" t="s">
+      <c r="A83" t="s">
         <v>94</v>
       </c>
       <c r="B83" s="4">
@@ -5796,7 +5817,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" s="48" t="s">
+      <c r="A84" t="s">
         <v>95</v>
       </c>
       <c r="B84">
@@ -5807,8 +5828,51 @@
         <v>60.854483258384313</v>
       </c>
     </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B39:L48 V23:AE32">
+  <conditionalFormatting sqref="V23:AE32 B39:L48">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND($A23=ROUNDDOWN($E$16,0),B$38=ROUNDDOWN($E$12,1))</formula>
     </cfRule>
@@ -5820,19 +5884,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="timingVar">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId5">
+        <control shapeId="1033" r:id="rId4" name="setPassAdjustment">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D28" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>119743</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>185057</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>59871</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId4" name="setPassAdjustment"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId6" name="distance">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D24" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
@@ -5840,32 +5929,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="timingVar"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="SpikeSkill">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D16" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="SpikeSkill"/>
+        <control shapeId="1030" r:id="rId6" name="distance"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5895,19 +5959,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId10" name="distance">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D24" r:id="rId11">
+        <control shapeId="1027" r:id="rId10" name="SpikeSkill">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D16" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
@@ -5915,32 +5979,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId10" name="distance"/>
+        <control shapeId="1027" r:id="rId10" name="SpikeSkill"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId12" name="setPassAdjustment">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D28" r:id="rId13">
+        <control shapeId="1026" r:id="rId12" name="timingVar">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>119743</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>185057</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>59871</xdr:rowOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId12" name="setPassAdjustment"/>
+        <control shapeId="1026" r:id="rId12" name="timingVar"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Resources/Spike Speed Tracker.xlsx
+++ b/Resources/Spike Speed Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\Unity\Projects\unity-kings-of-the-beach\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20255AB7-C714-42E8-AEA3-9643A0A9867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512C94E4-CF5A-4E94-BE7E-4B576B8C1416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{488066F8-1B0E-4D1C-ABA5-8DB35EC8884A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t>Player Skill</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>so is this the range?</t>
+  </si>
+  <si>
+    <t>Also!  If the jump peak is when the thing turns off, that's the ideal range</t>
+  </si>
+  <si>
+    <t>but maybe it should be set to enable longer (missed)</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,7 +772,7 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{DFD181E0-5E2F-11CE-A449-00AA004A803D}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4166,7 +4172,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="Q9" s="2">
         <f ca="1">SpikeTime!E24/(SpikeTime!E26*(1-(ABS(SpikeTime!E27)-SpikeTime!E28)))</f>
-        <v>0.19977610547016036</v>
+        <v>0.19235970565467586</v>
       </c>
     </row>
   </sheetData>
@@ -4177,10 +4183,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA744AF-4B66-411A-B034-C8F30C452722}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE90"/>
+  <dimension ref="A1:AE92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4250,11 +4256,11 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" s="31">
         <f>D12/100</f>
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="T12" t="s">
         <v>43</v>
@@ -4274,7 +4280,7 @@
       </c>
       <c r="E14" s="4">
         <f>ABS(E12-E13)</f>
-        <v>5.0000000000000044E-3</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="T14" t="s">
         <v>11</v>
@@ -4355,7 +4361,7 @@
       </c>
       <c r="E20" s="4">
         <f ca="1">RANDBETWEEN(-E19*100,E19*100)/100</f>
-        <v>-0.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.4">
@@ -4382,7 +4388,7 @@
       </c>
       <c r="E22" s="5">
         <f ca="1">MIN(MAX(E21+E20,1),10)</f>
-        <v>6.54</v>
+        <v>7.64</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>79</v>
@@ -4436,50 +4442,50 @@
       </c>
       <c r="E23" s="2">
         <f ca="1">E24/(E26*(1-(E27-E28)))</f>
-        <v>0.19977610547016036</v>
+        <v>0.19235970565467586</v>
       </c>
       <c r="U23" s="6">
         <v>1</v>
       </c>
       <c r="V23" s="35">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.989000000000001</v>
+        <v>21.945</v>
       </c>
       <c r="W23" s="36">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.988500000000002</v>
+        <v>22.942500000000003</v>
       </c>
       <c r="X23" s="36">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.988</v>
+        <v>23.94</v>
       </c>
       <c r="Y23" s="36">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.987500000000001</v>
+        <v>24.9375</v>
       </c>
       <c r="Z23" s="36">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.987000000000002</v>
+        <v>25.935000000000002</v>
       </c>
       <c r="AA23" s="36">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.986500000000003</v>
+        <v>26.932500000000001</v>
       </c>
       <c r="AB23" s="36">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.986000000000001</v>
+        <v>27.93</v>
       </c>
       <c r="AC23" s="36">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.985500000000002</v>
+        <v>28.927500000000002</v>
       </c>
       <c r="AD23" s="36">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.985000000000003</v>
+        <v>29.925000000000001</v>
       </c>
       <c r="AE23" s="36">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U23-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.984500000000001</v>
+        <v>30.922500000000003</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.4">
@@ -4502,43 +4508,43 @@
       </c>
       <c r="V24" s="37">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.990222222222222</v>
+        <v>21.951111111111111</v>
       </c>
       <c r="W24" s="38">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.989777777777778</v>
+        <v>22.948888888888888</v>
       </c>
       <c r="X24" s="38">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.989333333333335</v>
+        <v>23.946666666666665</v>
       </c>
       <c r="Y24" s="38">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.988888888888887</v>
+        <v>24.944444444444443</v>
       </c>
       <c r="Z24" s="38">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.988444444444443</v>
+        <v>25.94222222222222</v>
       </c>
       <c r="AA24" s="38">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.988</v>
+        <v>26.94</v>
       </c>
       <c r="AB24" s="38">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.987555555555556</v>
+        <v>27.937777777777779</v>
       </c>
       <c r="AC24" s="38">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.987111111111112</v>
+        <v>28.935555555555556</v>
       </c>
       <c r="AD24" s="38">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.986666666666665</v>
+        <v>29.933333333333334</v>
       </c>
       <c r="AE24" s="38">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U24-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.986222222222221</v>
+        <v>30.931111111111111</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.4">
@@ -4560,43 +4566,43 @@
       </c>
       <c r="V25" s="37">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.991444444444443</v>
+        <v>21.957222222222224</v>
       </c>
       <c r="W25" s="38">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.991055555555555</v>
+        <v>22.955277777777777</v>
       </c>
       <c r="X25" s="38">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.990666666666666</v>
+        <v>23.953333333333333</v>
       </c>
       <c r="Y25" s="38">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.990277777777777</v>
+        <v>24.951388888888889</v>
       </c>
       <c r="Z25" s="38">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.989888888888888</v>
+        <v>25.949444444444445</v>
       </c>
       <c r="AA25" s="38">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.9895</v>
+        <v>26.947500000000002</v>
       </c>
       <c r="AB25" s="38">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.989111111111111</v>
+        <v>27.945555555555558</v>
       </c>
       <c r="AC25" s="38">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.988722222222222</v>
+        <v>28.94361111111111</v>
       </c>
       <c r="AD25" s="38">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.988333333333333</v>
+        <v>29.941666666666666</v>
       </c>
       <c r="AE25" s="38">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U25-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.987944444444445</v>
+        <v>30.939722222222223</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.4">
@@ -4605,7 +4611,7 @@
       </c>
       <c r="E26" s="4">
         <f ca="1">(E22-'Skill to Value'!C3)*(E25-D25)/('Skill to Value'!D3-'Skill to Value'!C3)+D25</f>
-        <v>27.54</v>
+        <v>28.64</v>
       </c>
       <c r="U26" s="6">
         <f t="shared" si="1"/>
@@ -4613,43 +4619,43 @@
       </c>
       <c r="V26" s="37">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.992666666666668</v>
+        <v>21.963333333333331</v>
       </c>
       <c r="W26" s="38">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.992333333333335</v>
+        <v>22.961666666666666</v>
       </c>
       <c r="X26" s="38">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.992000000000001</v>
+        <v>23.96</v>
       </c>
       <c r="Y26" s="38">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.991666666666667</v>
+        <v>24.958333333333332</v>
       </c>
       <c r="Z26" s="38">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.991333333333333</v>
+        <v>25.956666666666667</v>
       </c>
       <c r="AA26" s="38">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.991</v>
+        <v>26.954999999999998</v>
       </c>
       <c r="AB26" s="38">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.990666666666669</v>
+        <v>27.953333333333333</v>
       </c>
       <c r="AC26" s="38">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.990333333333336</v>
+        <v>28.951666666666664</v>
       </c>
       <c r="AD26" s="38">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.990000000000002</v>
+        <v>29.95</v>
       </c>
       <c r="AE26" s="38">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U26-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.989666666666668</v>
+        <v>30.948333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.4">
@@ -4661,7 +4667,7 @@
       </c>
       <c r="E27" s="4">
         <f>E14*((E16-'Skill to Value'!C3)*(D17-E17)/('Skill to Value'!D3-'Skill to Value'!C3)+E17)</f>
-        <v>3.333333333333337E-4</v>
+        <v>1.6666666666666685E-3</v>
       </c>
       <c r="U27" s="6">
         <f t="shared" si="1"/>
@@ -4669,43 +4675,43 @@
       </c>
       <c r="V27" s="37">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.99388888888889</v>
+        <v>21.969444444444445</v>
       </c>
       <c r="W27" s="38">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.993611111111111</v>
+        <v>22.968055555555555</v>
       </c>
       <c r="X27" s="38">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.993333333333332</v>
+        <v>23.966666666666669</v>
       </c>
       <c r="Y27" s="38">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.993055555555554</v>
+        <v>24.965277777777779</v>
       </c>
       <c r="Z27" s="38">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.992777777777775</v>
+        <v>25.963888888888889</v>
       </c>
       <c r="AA27" s="38">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.9925</v>
+        <v>26.962499999999999</v>
       </c>
       <c r="AB27" s="38">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.992222222222221</v>
+        <v>27.961111111111112</v>
       </c>
       <c r="AC27" s="38">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.991944444444442</v>
+        <v>28.959722222222222</v>
       </c>
       <c r="AD27" s="38">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.991666666666667</v>
+        <v>29.958333333333332</v>
       </c>
       <c r="AE27" s="38">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U27-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.991388888888888</v>
+        <v>30.956944444444446</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.4">
@@ -4731,43 +4737,43 @@
       </c>
       <c r="V28" s="37">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.995111111111111</v>
+        <v>21.975555555555555</v>
       </c>
       <c r="W28" s="38">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.994888888888887</v>
+        <v>22.974444444444444</v>
       </c>
       <c r="X28" s="38">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.994666666666667</v>
+        <v>23.973333333333336</v>
       </c>
       <c r="Y28" s="38">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.994444444444444</v>
+        <v>24.972222222222225</v>
       </c>
       <c r="Z28" s="38">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.994222222222223</v>
+        <v>25.971111111111114</v>
       </c>
       <c r="AA28" s="38">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.994</v>
+        <v>26.970000000000002</v>
       </c>
       <c r="AB28" s="38">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.993777777777776</v>
+        <v>27.968888888888891</v>
       </c>
       <c r="AC28" s="38">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.993555555555556</v>
+        <v>28.96777777777778</v>
       </c>
       <c r="AD28" s="38">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.993333333333332</v>
+        <v>29.966666666666669</v>
       </c>
       <c r="AE28" s="38">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U28-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.993111111111112</v>
+        <v>30.965555555555557</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.4">
@@ -4776,7 +4782,7 @@
       </c>
       <c r="E29" s="4">
         <f>(1-(E27-E28))</f>
-        <v>0.9996666666666667</v>
+        <v>0.99833333333333329</v>
       </c>
       <c r="U29" s="6">
         <f t="shared" si="1"/>
@@ -4784,43 +4790,43 @@
       </c>
       <c r="V29" s="37">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.996333333333332</v>
+        <v>21.981666666666666</v>
       </c>
       <c r="W29" s="38">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.996166666666667</v>
+        <v>22.980833333333333</v>
       </c>
       <c r="X29" s="38">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.996000000000002</v>
+        <v>23.98</v>
       </c>
       <c r="Y29" s="38">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.995833333333334</v>
+        <v>24.979166666666668</v>
       </c>
       <c r="Z29" s="38">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.995666666666668</v>
+        <v>25.978333333333332</v>
       </c>
       <c r="AA29" s="38">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.9955</v>
+        <v>26.977499999999999</v>
       </c>
       <c r="AB29" s="38">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.995333333333335</v>
+        <v>27.976666666666667</v>
       </c>
       <c r="AC29" s="38">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.995166666666666</v>
+        <v>28.975833333333334</v>
       </c>
       <c r="AD29" s="38">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.995000000000001</v>
+        <v>29.974999999999998</v>
       </c>
       <c r="AE29" s="38">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U29-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.994833333333332</v>
+        <v>30.974166666666665</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.4">
@@ -4829,7 +4835,7 @@
       </c>
       <c r="E30" s="25">
         <f ca="1">E26*E29</f>
-        <v>27.530819999999999</v>
+        <v>28.592266666666667</v>
       </c>
       <c r="U30" s="6">
         <f t="shared" si="1"/>
@@ -4837,43 +4843,43 @@
       </c>
       <c r="V30" s="37">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.997555555555557</v>
+        <v>21.987777777777779</v>
       </c>
       <c r="W30" s="38">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.997444444444447</v>
+        <v>22.987222222222222</v>
       </c>
       <c r="X30" s="38">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.997333333333334</v>
+        <v>23.986666666666668</v>
       </c>
       <c r="Y30" s="38">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.997222222222224</v>
+        <v>24.986111111111111</v>
       </c>
       <c r="Z30" s="38">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.997111111111114</v>
+        <v>25.985555555555557</v>
       </c>
       <c r="AA30" s="38">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.997</v>
+        <v>26.984999999999999</v>
       </c>
       <c r="AB30" s="38">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.99688888888889</v>
+        <v>27.984444444444446</v>
       </c>
       <c r="AC30" s="38">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.99677777777778</v>
+        <v>28.983888888888888</v>
       </c>
       <c r="AD30" s="38">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.99666666666667</v>
+        <v>29.983333333333334</v>
       </c>
       <c r="AE30" s="38">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U30-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.996555555555556</v>
+        <v>30.982777777777777</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.4">
@@ -4883,43 +4889,43 @@
       </c>
       <c r="V31" s="37">
         <f>((V$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>21.998777777777779</v>
+        <v>21.99388888888889</v>
       </c>
       <c r="W31" s="38">
         <f>((W$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>22.99872222222222</v>
+        <v>22.993611111111111</v>
       </c>
       <c r="X31" s="38">
         <f>((X$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>23.998666666666665</v>
+        <v>23.993333333333332</v>
       </c>
       <c r="Y31" s="38">
         <f>((Y$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>24.99861111111111</v>
+        <v>24.993055555555554</v>
       </c>
       <c r="Z31" s="38">
         <f>((Z$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>25.998555555555555</v>
+        <v>25.992777777777775</v>
       </c>
       <c r="AA31" s="38">
         <f>((AA$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>26.9985</v>
+        <v>26.9925</v>
       </c>
       <c r="AB31" s="38">
         <f>((AB$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>27.998444444444445</v>
+        <v>27.992222222222221</v>
       </c>
       <c r="AC31" s="38">
         <f>((AC$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>28.998388888888886</v>
+        <v>28.991944444444442</v>
       </c>
       <c r="AD31" s="38">
         <f>((AD$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>29.998333333333331</v>
+        <v>29.991666666666667</v>
       </c>
       <c r="AE31" s="38">
         <f>((AE$22-'Skill to Value'!$C$3)*($E$25-$D$25)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$25)*(1-($E$14*(($U31-'Skill to Value'!$C$3)*($E$17-$D$17)/('Skill to Value'!$D$3-'Skill to Value'!$C$3)+$D$17)-$E$28))</f>
-        <v>30.998277777777776</v>
+        <v>30.991388888888888</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.4">
@@ -4928,7 +4934,7 @@
       </c>
       <c r="E32" s="25">
         <f ca="1">E24/E23</f>
-        <v>27.530819999999999</v>
+        <v>28.592266666666667</v>
       </c>
       <c r="F32" t="s">
         <v>71</v>
@@ -4984,7 +4990,7 @@
       </c>
       <c r="E33" s="25">
         <f ca="1">E32*2.23694</f>
-        <v>61.584792490799998</v>
+        <v>63.959184997333338</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.4">
@@ -4993,7 +4999,7 @@
       </c>
       <c r="Y34" s="25">
         <f>Z27</f>
-        <v>25.992777777777775</v>
+        <v>25.963888888888889</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.4">
@@ -5869,6 +5875,16 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="39" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5884,44 +5900,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId4" name="setPassAdjustment">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D28" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>119743</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>185057</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>59871</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId4" name="setPassAdjustment"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId6" name="distance">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D24" r:id="rId7">
+        <control shapeId="1026" r:id="rId4" name="timingVar">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
@@ -5929,7 +5920,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId6" name="distance"/>
+        <control shapeId="1026" r:id="rId4" name="timingVar"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="SpikeSkill">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D16" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>108857</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>27214</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>397329</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>179614</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="SpikeSkill"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5959,19 +5975,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId10" name="SpikeSkill">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D16" r:id="rId11">
+        <control shapeId="1030" r:id="rId10" name="distance">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D24" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>27214</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
                 <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>179614</xdr:rowOff>
               </to>
             </anchor>
@@ -5979,32 +5995,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId10" name="SpikeSkill"/>
+        <control shapeId="1030" r:id="rId10" name="distance"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId12" name="timingVar">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D12" r:id="rId13">
+        <control shapeId="1033" r:id="rId12" name="setPassAdjustment">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D28" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>108857</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>27214</xdr:rowOff>
+                <xdr:colOff>119743</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>397329</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>179614</xdr:rowOff>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>185057</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>59871</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId12" name="timingVar"/>
+        <control shapeId="1033" r:id="rId12" name="setPassAdjustment"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
